--- a/doc/SR99N_LDS_IP.xlsx
+++ b/doc/SR99N_LDS_IP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$O$95</definedName>
+    <definedName function="false" hidden="false" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$P$96</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="94">
   <si>
     <t xml:space="preserve">Postmile</t>
   </si>
@@ -72,10 +72,16 @@
     <t xml:space="preserve">Remarks</t>
   </si>
   <si>
-    <t xml:space="preserve">Elk Grove Blvd</t>
+    <t xml:space="preserve">E Stockton Blvd</t>
   </si>
   <si>
     <t xml:space="preserve">10.253.28.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elk Grove Blvd</t>
   </si>
   <si>
     <t xml:space="preserve">Mainline</t>
@@ -88,9 +94,6 @@
   </si>
   <si>
     <t xml:space="preserve">HOV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">On Ramp</t>
@@ -198,10 +201,10 @@
     <t xml:space="preserve">10.254.28.212</t>
   </si>
   <si>
-    <t xml:space="preserve">NameTangerine Ave.</t>
+    <t xml:space="preserve">Tangerine Ave.</t>
   </si>
   <si>
-    <t xml:space="preserve">10.254.28.211</t>
+    <t xml:space="preserve">10.254.127.2</t>
   </si>
   <si>
     <t xml:space="preserve">Pomegranate Ave</t>
@@ -314,7 +317,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -357,12 +360,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -554,7 +551,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="237">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -580,6 +577,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -614,10 +619,6 @@
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -763,10 +764,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -791,10 +788,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -815,7 +808,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -827,11 +820,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -839,11 +828,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -855,10 +840,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -867,11 +848,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -895,7 +872,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -919,7 +896,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -939,7 +916,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -967,10 +944,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -995,7 +968,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1014,10 +987,6 @@
     <xf numFmtId="164" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -1095,14 +1064,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1110,10 +1071,6 @@
     <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -1123,7 +1080,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1139,7 +1096,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1147,7 +1104,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1207,7 +1164,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1275,10 +1232,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1287,11 +1240,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1299,11 +1252,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1319,7 +1268,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1327,7 +1276,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1339,7 +1288,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1351,7 +1300,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="12" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1362,10 +1311,6 @@
     <xf numFmtId="164" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -1391,10 +1336,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1415,10 +1356,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1431,15 +1368,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1450,10 +1379,6 @@
     <xf numFmtId="164" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -1499,10 +1424,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="14" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1523,10 +1444,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1535,7 +1452,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="15" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1551,10 +1468,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1563,7 +1476,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="15" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1575,10 +1488,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1587,7 +1496,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="15" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1668,32 +1577,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:65536"/>
+  <dimension ref="1:86"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="4.82186234817814"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="5.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.21052631578947"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="6"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="60.8421052631579"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="1" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="4.82186234817814"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="5.57085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="6"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="61.8056680161943"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="8.67611336032389"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1709,1130 +1618,100 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AMJ1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+    <row r="2" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>2800</v>
+      </c>
+      <c r="K2" s="7" t="n">
+        <v>10014</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
         <v>287.295</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="8" t="n">
+      <c r="D3" s="11"/>
+      <c r="E3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G3" s="10" t="n">
         <v>313190</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="H3" s="12" t="n">
         <v>313185</v>
       </c>
-      <c r="H2" s="10" t="n">
+      <c r="I3" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="I2" s="10" t="n">
+      <c r="J3" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="J2" s="10" t="n">
+      <c r="K3" s="12" t="n">
+        <v>10012</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="12" t="n">
         <v>1000</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="11" t="n">
+      <c r="N3" s="13" t="n">
         <v>2.1</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
-      <c r="AA2" s="0"/>
-      <c r="AB2" s="0"/>
-      <c r="AC2" s="0"/>
-      <c r="AD2" s="0"/>
-      <c r="AE2" s="0"/>
-      <c r="AF2" s="0"/>
-      <c r="AG2" s="0"/>
-      <c r="AH2" s="0"/>
-      <c r="AI2" s="0"/>
-      <c r="AJ2" s="0"/>
-      <c r="AK2" s="0"/>
-      <c r="AL2" s="0"/>
-      <c r="AM2" s="0"/>
-      <c r="AN2" s="0"/>
-      <c r="AO2" s="0"/>
-      <c r="AP2" s="0"/>
-      <c r="AQ2" s="0"/>
-      <c r="AR2" s="0"/>
-      <c r="AS2" s="0"/>
-      <c r="AT2" s="0"/>
-      <c r="AU2" s="0"/>
-      <c r="AV2" s="0"/>
-      <c r="AW2" s="0"/>
-      <c r="AX2" s="0"/>
-      <c r="AY2" s="0"/>
-      <c r="AZ2" s="0"/>
-      <c r="BA2" s="0"/>
-      <c r="BB2" s="0"/>
-      <c r="BC2" s="0"/>
-      <c r="BD2" s="0"/>
-      <c r="BE2" s="0"/>
-      <c r="BF2" s="0"/>
-      <c r="BG2" s="0"/>
-      <c r="BH2" s="0"/>
-      <c r="BI2" s="0"/>
-      <c r="BJ2" s="0"/>
-      <c r="BK2" s="0"/>
-      <c r="BL2" s="0"/>
-      <c r="BM2" s="0"/>
-      <c r="BN2" s="0"/>
-      <c r="BO2" s="0"/>
-      <c r="BP2" s="0"/>
-      <c r="BQ2" s="0"/>
-      <c r="BR2" s="0"/>
-      <c r="BS2" s="0"/>
-      <c r="BT2" s="0"/>
-      <c r="BU2" s="0"/>
-      <c r="BV2" s="0"/>
-      <c r="BW2" s="0"/>
-      <c r="BX2" s="0"/>
-      <c r="BY2" s="0"/>
-      <c r="BZ2" s="0"/>
-      <c r="CA2" s="0"/>
-      <c r="CB2" s="0"/>
-      <c r="CC2" s="0"/>
-      <c r="CD2" s="0"/>
-      <c r="CE2" s="0"/>
-      <c r="CF2" s="0"/>
-      <c r="CG2" s="0"/>
-      <c r="CH2" s="0"/>
-      <c r="CI2" s="0"/>
-      <c r="CJ2" s="0"/>
-      <c r="CK2" s="0"/>
-      <c r="CL2" s="0"/>
-      <c r="CM2" s="0"/>
-      <c r="CN2" s="0"/>
-      <c r="CO2" s="0"/>
-      <c r="CP2" s="0"/>
-      <c r="CQ2" s="0"/>
-      <c r="CR2" s="0"/>
-      <c r="CS2" s="0"/>
-      <c r="CT2" s="0"/>
-      <c r="CU2" s="0"/>
-      <c r="CV2" s="0"/>
-      <c r="CW2" s="0"/>
-      <c r="CX2" s="0"/>
-      <c r="CY2" s="0"/>
-      <c r="CZ2" s="0"/>
-      <c r="DA2" s="0"/>
-      <c r="DB2" s="0"/>
-      <c r="DC2" s="0"/>
-      <c r="DD2" s="0"/>
-      <c r="DE2" s="0"/>
-      <c r="DF2" s="0"/>
-      <c r="DG2" s="0"/>
-      <c r="DH2" s="0"/>
-      <c r="DI2" s="0"/>
-      <c r="DJ2" s="0"/>
-      <c r="DK2" s="0"/>
-      <c r="DL2" s="0"/>
-      <c r="DM2" s="0"/>
-      <c r="DN2" s="0"/>
-      <c r="DO2" s="0"/>
-      <c r="DP2" s="0"/>
-      <c r="DQ2" s="0"/>
-      <c r="DR2" s="0"/>
-      <c r="DS2" s="0"/>
-      <c r="DT2" s="0"/>
-      <c r="DU2" s="0"/>
-      <c r="DV2" s="0"/>
-      <c r="DW2" s="0"/>
-      <c r="DX2" s="0"/>
-      <c r="DY2" s="0"/>
-      <c r="DZ2" s="0"/>
-      <c r="EA2" s="0"/>
-      <c r="EB2" s="0"/>
-      <c r="EC2" s="0"/>
-      <c r="ED2" s="0"/>
-      <c r="EE2" s="0"/>
-      <c r="EF2" s="0"/>
-      <c r="EG2" s="0"/>
-      <c r="EH2" s="0"/>
-      <c r="EI2" s="0"/>
-      <c r="EJ2" s="0"/>
-      <c r="EK2" s="0"/>
-      <c r="EL2" s="0"/>
-      <c r="EM2" s="0"/>
-      <c r="EN2" s="0"/>
-      <c r="EO2" s="0"/>
-      <c r="EP2" s="0"/>
-      <c r="EQ2" s="0"/>
-      <c r="ER2" s="0"/>
-      <c r="ES2" s="0"/>
-      <c r="ET2" s="0"/>
-      <c r="EU2" s="0"/>
-      <c r="EV2" s="0"/>
-      <c r="EW2" s="0"/>
-      <c r="EX2" s="0"/>
-      <c r="EY2" s="0"/>
-      <c r="EZ2" s="0"/>
-      <c r="FA2" s="0"/>
-      <c r="FB2" s="0"/>
-      <c r="FC2" s="0"/>
-      <c r="FD2" s="0"/>
-      <c r="FE2" s="0"/>
-      <c r="FF2" s="0"/>
-      <c r="FG2" s="0"/>
-      <c r="FH2" s="0"/>
-      <c r="FI2" s="0"/>
-      <c r="FJ2" s="0"/>
-      <c r="FK2" s="0"/>
-      <c r="FL2" s="0"/>
-      <c r="FM2" s="0"/>
-      <c r="FN2" s="0"/>
-      <c r="FO2" s="0"/>
-      <c r="FP2" s="0"/>
-      <c r="FQ2" s="0"/>
-      <c r="FR2" s="0"/>
-      <c r="FS2" s="0"/>
-      <c r="FT2" s="0"/>
-      <c r="FU2" s="0"/>
-      <c r="FV2" s="0"/>
-      <c r="FW2" s="0"/>
-      <c r="FX2" s="0"/>
-      <c r="FY2" s="0"/>
-      <c r="FZ2" s="0"/>
-      <c r="GA2" s="0"/>
-      <c r="GB2" s="0"/>
-      <c r="GC2" s="0"/>
-      <c r="GD2" s="0"/>
-      <c r="GE2" s="0"/>
-      <c r="GF2" s="0"/>
-      <c r="GG2" s="0"/>
-      <c r="GH2" s="0"/>
-      <c r="GI2" s="0"/>
-      <c r="GJ2" s="0"/>
-      <c r="GK2" s="0"/>
-      <c r="GL2" s="0"/>
-      <c r="GM2" s="0"/>
-      <c r="GN2" s="0"/>
-      <c r="GO2" s="0"/>
-      <c r="GP2" s="0"/>
-      <c r="GQ2" s="0"/>
-      <c r="GR2" s="0"/>
-      <c r="GS2" s="0"/>
-      <c r="GT2" s="0"/>
-      <c r="GU2" s="0"/>
-      <c r="GV2" s="0"/>
-      <c r="GW2" s="0"/>
-      <c r="GX2" s="0"/>
-      <c r="GY2" s="0"/>
-      <c r="GZ2" s="0"/>
-      <c r="HA2" s="0"/>
-      <c r="HB2" s="0"/>
-      <c r="HC2" s="0"/>
-      <c r="HD2" s="0"/>
-      <c r="HE2" s="0"/>
-      <c r="HF2" s="0"/>
-      <c r="HG2" s="0"/>
-      <c r="HH2" s="0"/>
-      <c r="HI2" s="0"/>
-      <c r="HJ2" s="0"/>
-      <c r="HK2" s="0"/>
-      <c r="HL2" s="0"/>
-      <c r="HM2" s="0"/>
-      <c r="HN2" s="0"/>
-      <c r="HO2" s="0"/>
-      <c r="HP2" s="0"/>
-      <c r="HQ2" s="0"/>
-      <c r="HR2" s="0"/>
-      <c r="HS2" s="0"/>
-      <c r="HT2" s="0"/>
-      <c r="HU2" s="0"/>
-      <c r="HV2" s="0"/>
-      <c r="HW2" s="0"/>
-      <c r="HX2" s="0"/>
-      <c r="HY2" s="0"/>
-      <c r="HZ2" s="0"/>
-      <c r="IA2" s="0"/>
-      <c r="IB2" s="0"/>
-      <c r="IC2" s="0"/>
-      <c r="ID2" s="0"/>
-      <c r="IE2" s="0"/>
-      <c r="IF2" s="0"/>
-      <c r="IG2" s="0"/>
-      <c r="IH2" s="0"/>
-      <c r="II2" s="0"/>
-      <c r="IJ2" s="0"/>
-      <c r="IK2" s="0"/>
-      <c r="IL2" s="0"/>
-      <c r="IM2" s="0"/>
-      <c r="IN2" s="0"/>
-      <c r="IO2" s="0"/>
-      <c r="IP2" s="0"/>
-      <c r="IQ2" s="0"/>
-      <c r="IR2" s="0"/>
-      <c r="IS2" s="0"/>
-      <c r="IT2" s="0"/>
-      <c r="IU2" s="0"/>
-      <c r="IV2" s="0"/>
-      <c r="IW2" s="0"/>
-      <c r="IX2" s="0"/>
-      <c r="IY2" s="0"/>
-      <c r="IZ2" s="0"/>
-      <c r="JA2" s="0"/>
-      <c r="JB2" s="0"/>
-      <c r="JC2" s="0"/>
-      <c r="JD2" s="0"/>
-      <c r="JE2" s="0"/>
-      <c r="JF2" s="0"/>
-      <c r="JG2" s="0"/>
-      <c r="JH2" s="0"/>
-      <c r="JI2" s="0"/>
-      <c r="JJ2" s="0"/>
-      <c r="JK2" s="0"/>
-      <c r="JL2" s="0"/>
-      <c r="JM2" s="0"/>
-      <c r="JN2" s="0"/>
-      <c r="JO2" s="0"/>
-      <c r="JP2" s="0"/>
-      <c r="JQ2" s="0"/>
-      <c r="JR2" s="0"/>
-      <c r="JS2" s="0"/>
-      <c r="JT2" s="0"/>
-      <c r="JU2" s="0"/>
-      <c r="JV2" s="0"/>
-      <c r="JW2" s="0"/>
-      <c r="JX2" s="0"/>
-      <c r="JY2" s="0"/>
-      <c r="JZ2" s="0"/>
-      <c r="KA2" s="0"/>
-      <c r="KB2" s="0"/>
-      <c r="KC2" s="0"/>
-      <c r="KD2" s="0"/>
-      <c r="KE2" s="0"/>
-      <c r="KF2" s="0"/>
-      <c r="KG2" s="0"/>
-      <c r="KH2" s="0"/>
-      <c r="KI2" s="0"/>
-      <c r="KJ2" s="0"/>
-      <c r="KK2" s="0"/>
-      <c r="KL2" s="0"/>
-      <c r="KM2" s="0"/>
-      <c r="KN2" s="0"/>
-      <c r="KO2" s="0"/>
-      <c r="KP2" s="0"/>
-      <c r="KQ2" s="0"/>
-      <c r="KR2" s="0"/>
-      <c r="KS2" s="0"/>
-      <c r="KT2" s="0"/>
-      <c r="KU2" s="0"/>
-      <c r="KV2" s="0"/>
-      <c r="KW2" s="0"/>
-      <c r="KX2" s="0"/>
-      <c r="KY2" s="0"/>
-      <c r="KZ2" s="0"/>
-      <c r="LA2" s="0"/>
-      <c r="LB2" s="0"/>
-      <c r="LC2" s="0"/>
-      <c r="LD2" s="0"/>
-      <c r="LE2" s="0"/>
-      <c r="LF2" s="0"/>
-      <c r="LG2" s="0"/>
-      <c r="LH2" s="0"/>
-      <c r="LI2" s="0"/>
-      <c r="LJ2" s="0"/>
-      <c r="LK2" s="0"/>
-      <c r="LL2" s="0"/>
-      <c r="LM2" s="0"/>
-      <c r="LN2" s="0"/>
-      <c r="LO2" s="0"/>
-      <c r="LP2" s="0"/>
-      <c r="LQ2" s="0"/>
-      <c r="LR2" s="0"/>
-      <c r="LS2" s="0"/>
-      <c r="LT2" s="0"/>
-      <c r="LU2" s="0"/>
-      <c r="LV2" s="0"/>
-      <c r="LW2" s="0"/>
-      <c r="LX2" s="0"/>
-      <c r="LY2" s="0"/>
-      <c r="LZ2" s="0"/>
-      <c r="MA2" s="0"/>
-      <c r="MB2" s="0"/>
-      <c r="MC2" s="0"/>
-      <c r="MD2" s="0"/>
-      <c r="ME2" s="0"/>
-      <c r="MF2" s="0"/>
-      <c r="MG2" s="0"/>
-      <c r="MH2" s="0"/>
-      <c r="MI2" s="0"/>
-      <c r="MJ2" s="0"/>
-      <c r="MK2" s="0"/>
-      <c r="ML2" s="0"/>
-      <c r="MM2" s="0"/>
-      <c r="MN2" s="0"/>
-      <c r="MO2" s="0"/>
-      <c r="MP2" s="0"/>
-      <c r="MQ2" s="0"/>
-      <c r="MR2" s="0"/>
-      <c r="MS2" s="0"/>
-      <c r="MT2" s="0"/>
-      <c r="MU2" s="0"/>
-      <c r="MV2" s="0"/>
-      <c r="MW2" s="0"/>
-      <c r="MX2" s="0"/>
-      <c r="MY2" s="0"/>
-      <c r="MZ2" s="0"/>
-      <c r="NA2" s="0"/>
-      <c r="NB2" s="0"/>
-      <c r="NC2" s="0"/>
-      <c r="ND2" s="0"/>
-      <c r="NE2" s="0"/>
-      <c r="NF2" s="0"/>
-      <c r="NG2" s="0"/>
-      <c r="NH2" s="0"/>
-      <c r="NI2" s="0"/>
-      <c r="NJ2" s="0"/>
-      <c r="NK2" s="0"/>
-      <c r="NL2" s="0"/>
-      <c r="NM2" s="0"/>
-      <c r="NN2" s="0"/>
-      <c r="NO2" s="0"/>
-      <c r="NP2" s="0"/>
-      <c r="NQ2" s="0"/>
-      <c r="NR2" s="0"/>
-      <c r="NS2" s="0"/>
-      <c r="NT2" s="0"/>
-      <c r="NU2" s="0"/>
-      <c r="NV2" s="0"/>
-      <c r="NW2" s="0"/>
-      <c r="NX2" s="0"/>
-      <c r="NY2" s="0"/>
-      <c r="NZ2" s="0"/>
-      <c r="OA2" s="0"/>
-      <c r="OB2" s="0"/>
-      <c r="OC2" s="0"/>
-      <c r="OD2" s="0"/>
-      <c r="OE2" s="0"/>
-      <c r="OF2" s="0"/>
-      <c r="OG2" s="0"/>
-      <c r="OH2" s="0"/>
-      <c r="OI2" s="0"/>
-      <c r="OJ2" s="0"/>
-      <c r="OK2" s="0"/>
-      <c r="OL2" s="0"/>
-      <c r="OM2" s="0"/>
-      <c r="ON2" s="0"/>
-      <c r="OO2" s="0"/>
-      <c r="OP2" s="0"/>
-      <c r="OQ2" s="0"/>
-      <c r="OR2" s="0"/>
-      <c r="OS2" s="0"/>
-      <c r="OT2" s="0"/>
-      <c r="OU2" s="0"/>
-      <c r="OV2" s="0"/>
-      <c r="OW2" s="0"/>
-      <c r="OX2" s="0"/>
-      <c r="OY2" s="0"/>
-      <c r="OZ2" s="0"/>
-      <c r="PA2" s="0"/>
-      <c r="PB2" s="0"/>
-      <c r="PC2" s="0"/>
-      <c r="PD2" s="0"/>
-      <c r="PE2" s="0"/>
-      <c r="PF2" s="0"/>
-      <c r="PG2" s="0"/>
-      <c r="PH2" s="0"/>
-      <c r="PI2" s="0"/>
-      <c r="PJ2" s="0"/>
-      <c r="PK2" s="0"/>
-      <c r="PL2" s="0"/>
-      <c r="PM2" s="0"/>
-      <c r="PN2" s="0"/>
-      <c r="PO2" s="0"/>
-      <c r="PP2" s="0"/>
-      <c r="PQ2" s="0"/>
-      <c r="PR2" s="0"/>
-      <c r="PS2" s="0"/>
-      <c r="PT2" s="0"/>
-      <c r="PU2" s="0"/>
-      <c r="PV2" s="0"/>
-      <c r="PW2" s="0"/>
-      <c r="PX2" s="0"/>
-      <c r="PY2" s="0"/>
-      <c r="PZ2" s="0"/>
-      <c r="QA2" s="0"/>
-      <c r="QB2" s="0"/>
-      <c r="QC2" s="0"/>
-      <c r="QD2" s="0"/>
-      <c r="QE2" s="0"/>
-      <c r="QF2" s="0"/>
-      <c r="QG2" s="0"/>
-      <c r="QH2" s="0"/>
-      <c r="QI2" s="0"/>
-      <c r="QJ2" s="0"/>
-      <c r="QK2" s="0"/>
-      <c r="QL2" s="0"/>
-      <c r="QM2" s="0"/>
-      <c r="QN2" s="0"/>
-      <c r="QO2" s="0"/>
-      <c r="QP2" s="0"/>
-      <c r="QQ2" s="0"/>
-      <c r="QR2" s="0"/>
-      <c r="QS2" s="0"/>
-      <c r="QT2" s="0"/>
-      <c r="QU2" s="0"/>
-      <c r="QV2" s="0"/>
-      <c r="QW2" s="0"/>
-      <c r="QX2" s="0"/>
-      <c r="QY2" s="0"/>
-      <c r="QZ2" s="0"/>
-      <c r="RA2" s="0"/>
-      <c r="RB2" s="0"/>
-      <c r="RC2" s="0"/>
-      <c r="RD2" s="0"/>
-      <c r="RE2" s="0"/>
-      <c r="RF2" s="0"/>
-      <c r="RG2" s="0"/>
-      <c r="RH2" s="0"/>
-      <c r="RI2" s="0"/>
-      <c r="RJ2" s="0"/>
-      <c r="RK2" s="0"/>
-      <c r="RL2" s="0"/>
-      <c r="RM2" s="0"/>
-      <c r="RN2" s="0"/>
-      <c r="RO2" s="0"/>
-      <c r="RP2" s="0"/>
-      <c r="RQ2" s="0"/>
-      <c r="RR2" s="0"/>
-      <c r="RS2" s="0"/>
-      <c r="RT2" s="0"/>
-      <c r="RU2" s="0"/>
-      <c r="RV2" s="0"/>
-      <c r="RW2" s="0"/>
-      <c r="RX2" s="0"/>
-      <c r="RY2" s="0"/>
-      <c r="RZ2" s="0"/>
-      <c r="SA2" s="0"/>
-      <c r="SB2" s="0"/>
-      <c r="SC2" s="0"/>
-      <c r="SD2" s="0"/>
-      <c r="SE2" s="0"/>
-      <c r="SF2" s="0"/>
-      <c r="SG2" s="0"/>
-      <c r="SH2" s="0"/>
-      <c r="SI2" s="0"/>
-      <c r="SJ2" s="0"/>
-      <c r="SK2" s="0"/>
-      <c r="SL2" s="0"/>
-      <c r="SM2" s="0"/>
-      <c r="SN2" s="0"/>
-      <c r="SO2" s="0"/>
-      <c r="SP2" s="0"/>
-      <c r="SQ2" s="0"/>
-      <c r="SR2" s="0"/>
-      <c r="SS2" s="0"/>
-      <c r="ST2" s="0"/>
-      <c r="SU2" s="0"/>
-      <c r="SV2" s="0"/>
-      <c r="SW2" s="0"/>
-      <c r="SX2" s="0"/>
-      <c r="SY2" s="0"/>
-      <c r="SZ2" s="0"/>
-      <c r="TA2" s="0"/>
-      <c r="TB2" s="0"/>
-      <c r="TC2" s="0"/>
-      <c r="TD2" s="0"/>
-      <c r="TE2" s="0"/>
-      <c r="TF2" s="0"/>
-      <c r="TG2" s="0"/>
-      <c r="TH2" s="0"/>
-      <c r="TI2" s="0"/>
-      <c r="TJ2" s="0"/>
-      <c r="TK2" s="0"/>
-      <c r="TL2" s="0"/>
-      <c r="TM2" s="0"/>
-      <c r="TN2" s="0"/>
-      <c r="TO2" s="0"/>
-      <c r="TP2" s="0"/>
-      <c r="TQ2" s="0"/>
-      <c r="TR2" s="0"/>
-      <c r="TS2" s="0"/>
-      <c r="TT2" s="0"/>
-      <c r="TU2" s="0"/>
-      <c r="TV2" s="0"/>
-      <c r="TW2" s="0"/>
-      <c r="TX2" s="0"/>
-      <c r="TY2" s="0"/>
-      <c r="TZ2" s="0"/>
-      <c r="UA2" s="0"/>
-      <c r="UB2" s="0"/>
-      <c r="UC2" s="0"/>
-      <c r="UD2" s="0"/>
-      <c r="UE2" s="0"/>
-      <c r="UF2" s="0"/>
-      <c r="UG2" s="0"/>
-      <c r="UH2" s="0"/>
-      <c r="UI2" s="0"/>
-      <c r="UJ2" s="0"/>
-      <c r="UK2" s="0"/>
-      <c r="UL2" s="0"/>
-      <c r="UM2" s="0"/>
-      <c r="UN2" s="0"/>
-      <c r="UO2" s="0"/>
-      <c r="UP2" s="0"/>
-      <c r="UQ2" s="0"/>
-      <c r="UR2" s="0"/>
-      <c r="US2" s="0"/>
-      <c r="UT2" s="0"/>
-      <c r="UU2" s="0"/>
-      <c r="UV2" s="0"/>
-      <c r="UW2" s="0"/>
-      <c r="UX2" s="0"/>
-      <c r="UY2" s="0"/>
-      <c r="UZ2" s="0"/>
-      <c r="VA2" s="0"/>
-      <c r="VB2" s="0"/>
-      <c r="VC2" s="0"/>
-      <c r="VD2" s="0"/>
-      <c r="VE2" s="0"/>
-      <c r="VF2" s="0"/>
-      <c r="VG2" s="0"/>
-      <c r="VH2" s="0"/>
-      <c r="VI2" s="0"/>
-      <c r="VJ2" s="0"/>
-      <c r="VK2" s="0"/>
-      <c r="VL2" s="0"/>
-      <c r="VM2" s="0"/>
-      <c r="VN2" s="0"/>
-      <c r="VO2" s="0"/>
-      <c r="VP2" s="0"/>
-      <c r="VQ2" s="0"/>
-      <c r="VR2" s="0"/>
-      <c r="VS2" s="0"/>
-      <c r="VT2" s="0"/>
-      <c r="VU2" s="0"/>
-      <c r="VV2" s="0"/>
-      <c r="VW2" s="0"/>
-      <c r="VX2" s="0"/>
-      <c r="VY2" s="0"/>
-      <c r="VZ2" s="0"/>
-      <c r="WA2" s="0"/>
-      <c r="WB2" s="0"/>
-      <c r="WC2" s="0"/>
-      <c r="WD2" s="0"/>
-      <c r="WE2" s="0"/>
-      <c r="WF2" s="0"/>
-      <c r="WG2" s="0"/>
-      <c r="WH2" s="0"/>
-      <c r="WI2" s="0"/>
-      <c r="WJ2" s="0"/>
-      <c r="WK2" s="0"/>
-      <c r="WL2" s="0"/>
-      <c r="WM2" s="0"/>
-      <c r="WN2" s="0"/>
-      <c r="WO2" s="0"/>
-      <c r="WP2" s="0"/>
-      <c r="WQ2" s="0"/>
-      <c r="WR2" s="0"/>
-      <c r="WS2" s="0"/>
-      <c r="WT2" s="0"/>
-      <c r="WU2" s="0"/>
-      <c r="WV2" s="0"/>
-      <c r="WW2" s="0"/>
-      <c r="WX2" s="0"/>
-      <c r="WY2" s="0"/>
-      <c r="WZ2" s="0"/>
-      <c r="XA2" s="0"/>
-      <c r="XB2" s="0"/>
-      <c r="XC2" s="0"/>
-      <c r="XD2" s="0"/>
-      <c r="XE2" s="0"/>
-      <c r="XF2" s="0"/>
-      <c r="XG2" s="0"/>
-      <c r="XH2" s="0"/>
-      <c r="XI2" s="0"/>
-      <c r="XJ2" s="0"/>
-      <c r="XK2" s="0"/>
-      <c r="XL2" s="0"/>
-      <c r="XM2" s="0"/>
-      <c r="XN2" s="0"/>
-      <c r="XO2" s="0"/>
-      <c r="XP2" s="0"/>
-      <c r="XQ2" s="0"/>
-      <c r="XR2" s="0"/>
-      <c r="XS2" s="0"/>
-      <c r="XT2" s="0"/>
-      <c r="XU2" s="0"/>
-      <c r="XV2" s="0"/>
-      <c r="XW2" s="0"/>
-      <c r="XX2" s="0"/>
-      <c r="XY2" s="0"/>
-      <c r="XZ2" s="0"/>
-      <c r="YA2" s="0"/>
-      <c r="YB2" s="0"/>
-      <c r="YC2" s="0"/>
-      <c r="YD2" s="0"/>
-      <c r="YE2" s="0"/>
-      <c r="YF2" s="0"/>
-      <c r="YG2" s="0"/>
-      <c r="YH2" s="0"/>
-      <c r="YI2" s="0"/>
-      <c r="YJ2" s="0"/>
-      <c r="YK2" s="0"/>
-      <c r="YL2" s="0"/>
-      <c r="YM2" s="0"/>
-      <c r="YN2" s="0"/>
-      <c r="YO2" s="0"/>
-      <c r="YP2" s="0"/>
-      <c r="YQ2" s="0"/>
-      <c r="YR2" s="0"/>
-      <c r="YS2" s="0"/>
-      <c r="YT2" s="0"/>
-      <c r="YU2" s="0"/>
-      <c r="YV2" s="0"/>
-      <c r="YW2" s="0"/>
-      <c r="YX2" s="0"/>
-      <c r="YY2" s="0"/>
-      <c r="YZ2" s="0"/>
-      <c r="ZA2" s="0"/>
-      <c r="ZB2" s="0"/>
-      <c r="ZC2" s="0"/>
-      <c r="ZD2" s="0"/>
-      <c r="ZE2" s="0"/>
-      <c r="ZF2" s="0"/>
-      <c r="ZG2" s="0"/>
-      <c r="ZH2" s="0"/>
-      <c r="ZI2" s="0"/>
-      <c r="ZJ2" s="0"/>
-      <c r="ZK2" s="0"/>
-      <c r="ZL2" s="0"/>
-      <c r="ZM2" s="0"/>
-      <c r="ZN2" s="0"/>
-      <c r="ZO2" s="0"/>
-      <c r="ZP2" s="0"/>
-      <c r="ZQ2" s="0"/>
-      <c r="ZR2" s="0"/>
-      <c r="ZS2" s="0"/>
-      <c r="ZT2" s="0"/>
-      <c r="ZU2" s="0"/>
-      <c r="ZV2" s="0"/>
-      <c r="ZW2" s="0"/>
-      <c r="ZX2" s="0"/>
-      <c r="ZY2" s="0"/>
-      <c r="ZZ2" s="0"/>
-      <c r="AAA2" s="0"/>
-      <c r="AAB2" s="0"/>
-      <c r="AAC2" s="0"/>
-      <c r="AAD2" s="0"/>
-      <c r="AAE2" s="0"/>
-      <c r="AAF2" s="0"/>
-      <c r="AAG2" s="0"/>
-      <c r="AAH2" s="0"/>
-      <c r="AAI2" s="0"/>
-      <c r="AAJ2" s="0"/>
-      <c r="AAK2" s="0"/>
-      <c r="AAL2" s="0"/>
-      <c r="AAM2" s="0"/>
-      <c r="AAN2" s="0"/>
-      <c r="AAO2" s="0"/>
-      <c r="AAP2" s="0"/>
-      <c r="AAQ2" s="0"/>
-      <c r="AAR2" s="0"/>
-      <c r="AAS2" s="0"/>
-      <c r="AAT2" s="0"/>
-      <c r="AAU2" s="0"/>
-      <c r="AAV2" s="0"/>
-      <c r="AAW2" s="0"/>
-      <c r="AAX2" s="0"/>
-      <c r="AAY2" s="0"/>
-      <c r="AAZ2" s="0"/>
-      <c r="ABA2" s="0"/>
-      <c r="ABB2" s="0"/>
-      <c r="ABC2" s="0"/>
-      <c r="ABD2" s="0"/>
-      <c r="ABE2" s="0"/>
-      <c r="ABF2" s="0"/>
-      <c r="ABG2" s="0"/>
-      <c r="ABH2" s="0"/>
-      <c r="ABI2" s="0"/>
-      <c r="ABJ2" s="0"/>
-      <c r="ABK2" s="0"/>
-      <c r="ABL2" s="0"/>
-      <c r="ABM2" s="0"/>
-      <c r="ABN2" s="0"/>
-      <c r="ABO2" s="0"/>
-      <c r="ABP2" s="0"/>
-      <c r="ABQ2" s="0"/>
-      <c r="ABR2" s="0"/>
-      <c r="ABS2" s="0"/>
-      <c r="ABT2" s="0"/>
-      <c r="ABU2" s="0"/>
-      <c r="ABV2" s="0"/>
-      <c r="ABW2" s="0"/>
-      <c r="ABX2" s="0"/>
-      <c r="ABY2" s="0"/>
-      <c r="ABZ2" s="0"/>
-      <c r="ACA2" s="0"/>
-      <c r="ACB2" s="0"/>
-      <c r="ACC2" s="0"/>
-      <c r="ACD2" s="0"/>
-      <c r="ACE2" s="0"/>
-      <c r="ACF2" s="0"/>
-      <c r="ACG2" s="0"/>
-      <c r="ACH2" s="0"/>
-      <c r="ACI2" s="0"/>
-      <c r="ACJ2" s="0"/>
-      <c r="ACK2" s="0"/>
-      <c r="ACL2" s="0"/>
-      <c r="ACM2" s="0"/>
-      <c r="ACN2" s="0"/>
-      <c r="ACO2" s="0"/>
-      <c r="ACP2" s="0"/>
-      <c r="ACQ2" s="0"/>
-      <c r="ACR2" s="0"/>
-      <c r="ACS2" s="0"/>
-      <c r="ACT2" s="0"/>
-      <c r="ACU2" s="0"/>
-      <c r="ACV2" s="0"/>
-      <c r="ACW2" s="0"/>
-      <c r="ACX2" s="0"/>
-      <c r="ACY2" s="0"/>
-      <c r="ACZ2" s="0"/>
-      <c r="ADA2" s="0"/>
-      <c r="ADB2" s="0"/>
-      <c r="ADC2" s="0"/>
-      <c r="ADD2" s="0"/>
-      <c r="ADE2" s="0"/>
-      <c r="ADF2" s="0"/>
-      <c r="ADG2" s="0"/>
-      <c r="ADH2" s="0"/>
-      <c r="ADI2" s="0"/>
-      <c r="ADJ2" s="0"/>
-      <c r="ADK2" s="0"/>
-      <c r="ADL2" s="0"/>
-      <c r="ADM2" s="0"/>
-      <c r="ADN2" s="0"/>
-      <c r="ADO2" s="0"/>
-      <c r="ADP2" s="0"/>
-      <c r="ADQ2" s="0"/>
-      <c r="ADR2" s="0"/>
-      <c r="ADS2" s="0"/>
-      <c r="ADT2" s="0"/>
-      <c r="ADU2" s="0"/>
-      <c r="ADV2" s="0"/>
-      <c r="ADW2" s="0"/>
-      <c r="ADX2" s="0"/>
-      <c r="ADY2" s="0"/>
-      <c r="ADZ2" s="0"/>
-      <c r="AEA2" s="0"/>
-      <c r="AEB2" s="0"/>
-      <c r="AEC2" s="0"/>
-      <c r="AED2" s="0"/>
-      <c r="AEE2" s="0"/>
-      <c r="AEF2" s="0"/>
-      <c r="AEG2" s="0"/>
-      <c r="AEH2" s="0"/>
-      <c r="AEI2" s="0"/>
-      <c r="AEJ2" s="0"/>
-      <c r="AEK2" s="0"/>
-      <c r="AEL2" s="0"/>
-      <c r="AEM2" s="0"/>
-      <c r="AEN2" s="0"/>
-      <c r="AEO2" s="0"/>
-      <c r="AEP2" s="0"/>
-      <c r="AEQ2" s="0"/>
-      <c r="AER2" s="0"/>
-      <c r="AES2" s="0"/>
-      <c r="AET2" s="0"/>
-      <c r="AEU2" s="0"/>
-      <c r="AEV2" s="0"/>
-      <c r="AEW2" s="0"/>
-      <c r="AEX2" s="0"/>
-      <c r="AEY2" s="0"/>
-      <c r="AEZ2" s="0"/>
-      <c r="AFA2" s="0"/>
-      <c r="AFB2" s="0"/>
-      <c r="AFC2" s="0"/>
-      <c r="AFD2" s="0"/>
-      <c r="AFE2" s="0"/>
-      <c r="AFF2" s="0"/>
-      <c r="AFG2" s="0"/>
-      <c r="AFH2" s="0"/>
-      <c r="AFI2" s="0"/>
-      <c r="AFJ2" s="0"/>
-      <c r="AFK2" s="0"/>
-      <c r="AFL2" s="0"/>
-      <c r="AFM2" s="0"/>
-      <c r="AFN2" s="0"/>
-      <c r="AFO2" s="0"/>
-      <c r="AFP2" s="0"/>
-      <c r="AFQ2" s="0"/>
-      <c r="AFR2" s="0"/>
-      <c r="AFS2" s="0"/>
-      <c r="AFT2" s="0"/>
-      <c r="AFU2" s="0"/>
-      <c r="AFV2" s="0"/>
-      <c r="AFW2" s="0"/>
-      <c r="AFX2" s="0"/>
-      <c r="AFY2" s="0"/>
-      <c r="AFZ2" s="0"/>
-      <c r="AGA2" s="0"/>
-      <c r="AGB2" s="0"/>
-      <c r="AGC2" s="0"/>
-      <c r="AGD2" s="0"/>
-      <c r="AGE2" s="0"/>
-      <c r="AGF2" s="0"/>
-      <c r="AGG2" s="0"/>
-      <c r="AGH2" s="0"/>
-      <c r="AGI2" s="0"/>
-      <c r="AGJ2" s="0"/>
-      <c r="AGK2" s="0"/>
-      <c r="AGL2" s="0"/>
-      <c r="AGM2" s="0"/>
-      <c r="AGN2" s="0"/>
-      <c r="AGO2" s="0"/>
-      <c r="AGP2" s="0"/>
-      <c r="AGQ2" s="0"/>
-      <c r="AGR2" s="0"/>
-      <c r="AGS2" s="0"/>
-      <c r="AGT2" s="0"/>
-      <c r="AGU2" s="0"/>
-      <c r="AGV2" s="0"/>
-      <c r="AGW2" s="0"/>
-      <c r="AGX2" s="0"/>
-      <c r="AGY2" s="0"/>
-      <c r="AGZ2" s="0"/>
-      <c r="AHA2" s="0"/>
-      <c r="AHB2" s="0"/>
-      <c r="AHC2" s="0"/>
-      <c r="AHD2" s="0"/>
-      <c r="AHE2" s="0"/>
-      <c r="AHF2" s="0"/>
-      <c r="AHG2" s="0"/>
-      <c r="AHH2" s="0"/>
-      <c r="AHI2" s="0"/>
-      <c r="AHJ2" s="0"/>
-      <c r="AHK2" s="0"/>
-      <c r="AHL2" s="0"/>
-      <c r="AHM2" s="0"/>
-      <c r="AHN2" s="0"/>
-      <c r="AHO2" s="0"/>
-      <c r="AHP2" s="0"/>
-      <c r="AHQ2" s="0"/>
-      <c r="AHR2" s="0"/>
-      <c r="AHS2" s="0"/>
-      <c r="AHT2" s="0"/>
-      <c r="AHU2" s="0"/>
-      <c r="AHV2" s="0"/>
-      <c r="AHW2" s="0"/>
-      <c r="AHX2" s="0"/>
-      <c r="AHY2" s="0"/>
-      <c r="AHZ2" s="0"/>
-      <c r="AIA2" s="0"/>
-      <c r="AIB2" s="0"/>
-      <c r="AIC2" s="0"/>
-      <c r="AID2" s="0"/>
-      <c r="AIE2" s="0"/>
-      <c r="AIF2" s="0"/>
-      <c r="AIG2" s="0"/>
-      <c r="AIH2" s="0"/>
-      <c r="AII2" s="0"/>
-      <c r="AIJ2" s="0"/>
-      <c r="AIK2" s="0"/>
-      <c r="AIL2" s="0"/>
-      <c r="AIM2" s="0"/>
-      <c r="AIN2" s="0"/>
-      <c r="AIO2" s="0"/>
-      <c r="AIP2" s="0"/>
-      <c r="AIQ2" s="0"/>
-      <c r="AIR2" s="0"/>
-      <c r="AIS2" s="0"/>
-      <c r="AIT2" s="0"/>
-      <c r="AIU2" s="0"/>
-      <c r="AIV2" s="0"/>
-      <c r="AIW2" s="0"/>
-      <c r="AIX2" s="0"/>
-      <c r="AIY2" s="0"/>
-      <c r="AIZ2" s="0"/>
-      <c r="AJA2" s="0"/>
-      <c r="AJB2" s="0"/>
-      <c r="AJC2" s="0"/>
-      <c r="AJD2" s="0"/>
-      <c r="AJE2" s="0"/>
-      <c r="AJF2" s="0"/>
-      <c r="AJG2" s="0"/>
-      <c r="AJH2" s="0"/>
-      <c r="AJI2" s="0"/>
-      <c r="AJJ2" s="0"/>
-      <c r="AJK2" s="0"/>
-      <c r="AJL2" s="0"/>
-      <c r="AJM2" s="0"/>
-      <c r="AJN2" s="0"/>
-      <c r="AJO2" s="0"/>
-      <c r="AJP2" s="0"/>
-      <c r="AJQ2" s="0"/>
-      <c r="AJR2" s="0"/>
-      <c r="AJS2" s="0"/>
-      <c r="AJT2" s="0"/>
-      <c r="AJU2" s="0"/>
-      <c r="AJV2" s="0"/>
-      <c r="AJW2" s="0"/>
-      <c r="AJX2" s="0"/>
-      <c r="AJY2" s="0"/>
-      <c r="AJZ2" s="0"/>
-      <c r="AKA2" s="0"/>
-      <c r="AKB2" s="0"/>
-      <c r="AKC2" s="0"/>
-      <c r="AKD2" s="0"/>
-      <c r="AKE2" s="0"/>
-      <c r="AKF2" s="0"/>
-      <c r="AKG2" s="0"/>
-      <c r="AKH2" s="0"/>
-      <c r="AKI2" s="0"/>
-      <c r="AKJ2" s="0"/>
-      <c r="AKK2" s="0"/>
-      <c r="AKL2" s="0"/>
-      <c r="AKM2" s="0"/>
-      <c r="AKN2" s="0"/>
-      <c r="AKO2" s="0"/>
-      <c r="AKP2" s="0"/>
-      <c r="AKQ2" s="0"/>
-      <c r="AKR2" s="0"/>
-      <c r="AKS2" s="0"/>
-      <c r="AKT2" s="0"/>
-      <c r="AKU2" s="0"/>
-      <c r="AKV2" s="0"/>
-      <c r="AKW2" s="0"/>
-      <c r="AKX2" s="0"/>
-      <c r="AKY2" s="0"/>
-      <c r="AKZ2" s="0"/>
-      <c r="ALA2" s="0"/>
-      <c r="ALB2" s="0"/>
-      <c r="ALC2" s="0"/>
-      <c r="ALD2" s="0"/>
-      <c r="ALE2" s="0"/>
-      <c r="ALF2" s="0"/>
-      <c r="ALG2" s="0"/>
-      <c r="ALH2" s="0"/>
-      <c r="ALI2" s="0"/>
-      <c r="ALJ2" s="0"/>
-      <c r="ALK2" s="0"/>
-      <c r="ALL2" s="0"/>
-      <c r="ALM2" s="0"/>
-      <c r="ALN2" s="0"/>
-      <c r="ALO2" s="0"/>
-      <c r="ALP2" s="0"/>
-      <c r="ALQ2" s="0"/>
-      <c r="ALR2" s="0"/>
-      <c r="ALS2" s="0"/>
-      <c r="ALT2" s="0"/>
-      <c r="ALU2" s="0"/>
-      <c r="ALV2" s="0"/>
-      <c r="ALW2" s="0"/>
-      <c r="ALX2" s="0"/>
-      <c r="ALY2" s="0"/>
-      <c r="ALZ2" s="0"/>
-      <c r="AMA2" s="0"/>
-      <c r="AMB2" s="0"/>
-      <c r="AMC2" s="0"/>
-      <c r="AMD2" s="0"/>
-      <c r="AME2" s="0"/>
-      <c r="AMF2" s="0"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
-        <v>287.295</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="14" t="n">
-        <v>315828</v>
-      </c>
-      <c r="G3" s="17" t="n">
-        <v>313185</v>
-      </c>
-      <c r="H3" s="17" t="n">
-        <v>13</v>
-      </c>
-      <c r="I3" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" s="17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M3" s="18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="0"/>
+      <c r="O3" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="P3" s="0"/>
       <c r="Q3" s="0"/>
       <c r="R3" s="0"/>
@@ -3844,49 +2723,47 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="n">
-        <v>287.23</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="15" t="n">
+        <v>287.295</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G4" s="16" t="n">
+        <v>315828</v>
+      </c>
+      <c r="H4" s="18" t="n">
+        <v>313185</v>
+      </c>
+      <c r="I4" s="18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J4" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="12" t="n">
+        <v>10012</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="20" t="n">
-        <v>314107</v>
-      </c>
-      <c r="G4" s="21" t="n">
-        <v>313185</v>
-      </c>
-      <c r="H4" s="21" t="n">
-        <v>13</v>
-      </c>
-      <c r="I4" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" s="21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M4" s="22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="0"/>
       <c r="P4" s="0"/>
       <c r="Q4" s="0"/>
       <c r="R4" s="0"/>
@@ -4898,49 +3775,51 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="n">
-        <v>287.615</v>
-      </c>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="20" t="n">
+        <v>287.23</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="24" t="n">
-        <v>314697</v>
-      </c>
-      <c r="G5" s="26" t="n">
-        <v>314690</v>
-      </c>
-      <c r="H5" s="26" t="n">
-        <v>19</v>
-      </c>
-      <c r="I5" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="26" t="n">
+      <c r="F5" s="10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="21" t="n">
+        <v>314107</v>
+      </c>
+      <c r="H5" s="22" t="n">
+        <v>313185</v>
+      </c>
+      <c r="I5" s="22" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" s="12" t="n">
+        <v>10012</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="K5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M5" s="27" t="n">
+      <c r="N5" s="23" t="n">
         <v>2.1</v>
       </c>
-      <c r="N5" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="0"/>
+      <c r="O5" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="P5" s="0"/>
       <c r="Q5" s="0"/>
       <c r="R5" s="0"/>
@@ -5951,46 +4830,52 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="n">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24" t="n">
         <v>287.615</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31" t="s">
+      <c r="B6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="30" t="n">
-        <v>315831</v>
-      </c>
-      <c r="G6" s="33" t="n">
+      <c r="C6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G6" s="25" t="n">
+        <v>314697</v>
+      </c>
+      <c r="H6" s="27" t="n">
         <v>314690</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="I6" s="27" t="n">
         <v>19</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="J6" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="33" t="n">
+      <c r="K6" s="27" t="n">
         <v>1000</v>
       </c>
-      <c r="K6" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="33" t="n">
+      <c r="L6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="27" t="n">
         <v>1000</v>
       </c>
-      <c r="M6" s="34" t="n">
+      <c r="N6" s="28" t="n">
         <v>2.1</v>
       </c>
-      <c r="N6" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="0"/>
+      <c r="O6" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="P6" s="0"/>
       <c r="Q6" s="0"/>
       <c r="R6" s="0"/>
@@ -7001,48 +5886,48 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="n">
-        <v>287.974</v>
-      </c>
-      <c r="B7" s="36" t="s">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="30" t="n">
+        <v>287.615</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="31" t="n">
+        <v>3200</v>
+      </c>
+      <c r="G7" s="31" t="n">
+        <v>315831</v>
+      </c>
+      <c r="H7" s="34" t="n">
+        <v>314690</v>
+      </c>
+      <c r="I7" s="34" t="n">
+        <v>19</v>
+      </c>
+      <c r="J7" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N7" s="35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="36" t="n">
-        <v>314115</v>
-      </c>
-      <c r="G7" s="38" t="n">
-        <v>313160</v>
-      </c>
-      <c r="H7" s="38" t="n">
-        <v>19</v>
-      </c>
-      <c r="I7" s="38" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" s="38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M7" s="39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N7" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="0"/>
       <c r="P7" s="0"/>
       <c r="Q7" s="0"/>
       <c r="R7" s="0"/>
@@ -8053,48 +6938,50 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="41" t="n">
-        <v>288.25</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="43" t="s">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="36" t="n">
+        <v>287.974</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="42" t="n">
-        <v>313166</v>
-      </c>
-      <c r="G8" s="44" t="n">
+      <c r="C8" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G8" s="37" t="n">
+        <v>314115</v>
+      </c>
+      <c r="H8" s="39" t="n">
         <v>313160</v>
       </c>
-      <c r="H8" s="44" t="n">
+      <c r="I8" s="39" t="n">
         <v>19</v>
       </c>
-      <c r="I8" s="44" t="n">
+      <c r="J8" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="J8" s="44" t="n">
+      <c r="K8" s="39" t="n">
         <v>1000</v>
       </c>
-      <c r="K8" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="44" t="n">
+      <c r="L8" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="39" t="n">
         <v>1000</v>
       </c>
-      <c r="M8" s="45" t="n">
+      <c r="N8" s="40" t="n">
         <v>2.1</v>
       </c>
-      <c r="N8" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="0"/>
+      <c r="O8" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="P8" s="0"/>
       <c r="Q8" s="0"/>
       <c r="R8" s="0"/>
@@ -9106,45 +7993,49 @@
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="n">
+      <c r="A9" s="42" t="n">
         <v>288.25</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43" t="s">
+      <c r="B9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="42" t="n">
-        <v>315827</v>
-      </c>
-      <c r="G9" s="44" t="n">
+      <c r="C9" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G9" s="43" t="n">
+        <v>313166</v>
+      </c>
+      <c r="H9" s="45" t="n">
         <v>313160</v>
       </c>
-      <c r="H9" s="44" t="n">
+      <c r="I9" s="45" t="n">
         <v>19</v>
       </c>
-      <c r="I9" s="44" t="n">
+      <c r="J9" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="J9" s="44" t="n">
+      <c r="K9" s="45" t="n">
         <v>1000</v>
       </c>
-      <c r="K9" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="44" t="n">
+      <c r="L9" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="45" t="n">
         <v>1000</v>
       </c>
-      <c r="M9" s="45" t="n">
+      <c r="N9" s="46" t="n">
         <v>2.1</v>
       </c>
-      <c r="N9" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="0"/>
+      <c r="O9" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="P9" s="0"/>
       <c r="Q9" s="0"/>
       <c r="R9" s="0"/>
@@ -10156,49 +9047,47 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="n">
+      <c r="A10" s="42" t="n">
         <v>288.25</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="43" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G10" s="43" t="n">
+        <v>315827</v>
+      </c>
+      <c r="H10" s="45" t="n">
+        <v>313160</v>
+      </c>
+      <c r="I10" s="45" t="n">
+        <v>19</v>
+      </c>
+      <c r="J10" s="45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" s="45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N10" s="46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="47" t="n">
-        <v>314114</v>
-      </c>
-      <c r="G10" s="48" t="n">
-        <v>313160</v>
-      </c>
-      <c r="H10" s="48" t="n">
-        <v>19</v>
-      </c>
-      <c r="I10" s="48" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" s="48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M10" s="49" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="0"/>
       <c r="P10" s="0"/>
       <c r="Q10" s="0"/>
       <c r="R10" s="0"/>
@@ -11210,47 +10099,51 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="50" t="n">
-        <v>288.47</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="51" t="s">
+      <c r="A11" s="47" t="n">
+        <v>288.25</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="51" t="n">
-        <v>313172</v>
-      </c>
-      <c r="G11" s="54" t="n">
-        <v>313167</v>
-      </c>
-      <c r="H11" s="54" t="n">
+      <c r="E11" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G11" s="48" t="n">
+        <v>314114</v>
+      </c>
+      <c r="H11" s="49" t="n">
+        <v>313160</v>
+      </c>
+      <c r="I11" s="49" t="n">
         <v>19</v>
       </c>
-      <c r="I11" s="54" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" s="54" t="n">
+      <c r="J11" s="49" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" s="49" t="n">
         <v>1000</v>
       </c>
-      <c r="K11" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="54" t="n">
+      <c r="L11" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="49" t="n">
         <v>1000</v>
       </c>
-      <c r="M11" s="55" t="n">
+      <c r="N11" s="50" t="n">
         <v>2.1</v>
       </c>
-      <c r="N11" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="0"/>
+      <c r="O11" s="41" t="s">
+        <v>21</v>
+      </c>
       <c r="P11" s="0"/>
       <c r="Q11" s="0"/>
       <c r="R11" s="0"/>
@@ -12261,46 +11154,50 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="57" t="n">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="51" t="n">
         <v>288.47</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59" t="s">
+      <c r="B12" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="58" t="s">
+      <c r="C12" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="52" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G12" s="52" t="n">
+        <v>313172</v>
+      </c>
+      <c r="H12" s="54" t="n">
+        <v>313167</v>
+      </c>
+      <c r="I12" s="54" t="n">
+        <v>19</v>
+      </c>
+      <c r="J12" s="54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" s="54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="58" t="n">
-        <v>315823</v>
-      </c>
-      <c r="G12" s="61" t="n">
-        <v>313167</v>
-      </c>
-      <c r="H12" s="61" t="n">
-        <v>19</v>
-      </c>
-      <c r="I12" s="61" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" s="61" t="n">
+      <c r="M12" s="54" t="n">
         <v>1000</v>
       </c>
-      <c r="K12" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M12" s="62" t="n">
+      <c r="N12" s="55" t="n">
         <v>2.1</v>
       </c>
-      <c r="N12" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="0"/>
+      <c r="O12" s="56" t="s">
+        <v>21</v>
+      </c>
       <c r="P12" s="0"/>
       <c r="Q12" s="0"/>
       <c r="R12" s="0"/>
@@ -13311,50 +12208,48 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="63" t="n">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="57" t="n">
         <v>288.47</v>
       </c>
-      <c r="B13" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="60" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="58" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G13" s="58" t="n">
+        <v>315823</v>
+      </c>
+      <c r="H13" s="60" t="n">
+        <v>313167</v>
+      </c>
+      <c r="I13" s="60" t="n">
+        <v>19</v>
+      </c>
+      <c r="J13" s="60" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" s="60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N13" s="61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O13" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="64" t="n">
-        <v>314098</v>
-      </c>
-      <c r="G13" s="66" t="n">
-        <v>313167</v>
-      </c>
-      <c r="H13" s="66" t="n">
-        <v>19</v>
-      </c>
-      <c r="I13" s="66" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" s="66" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K13" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="66" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M13" s="67" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N13" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="0"/>
       <c r="P13" s="0"/>
       <c r="Q13" s="0"/>
       <c r="R13" s="0"/>
@@ -14365,51 +13260,51 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="n">
-        <v>288.88</v>
-      </c>
-      <c r="B14" s="24" t="s">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="62" t="n">
+        <v>288.47</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="24" t="s">
+      <c r="D14" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="24" t="n">
-        <v>313178</v>
-      </c>
-      <c r="G14" s="26" t="n">
-        <v>313173</v>
-      </c>
-      <c r="H14" s="26" t="n">
-        <v>70</v>
-      </c>
-      <c r="I14" s="26" t="n">
-        <v>4</v>
-      </c>
-      <c r="J14" s="26" t="n">
+      <c r="E14" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="63" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G14" s="63" t="n">
+        <v>314098</v>
+      </c>
+      <c r="H14" s="65" t="n">
+        <v>313167</v>
+      </c>
+      <c r="I14" s="65" t="n">
+        <v>19</v>
+      </c>
+      <c r="J14" s="65" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" s="65" t="n">
         <v>1000</v>
       </c>
-      <c r="K14" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="26" t="n">
+      <c r="L14" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="65" t="n">
         <v>1000</v>
       </c>
-      <c r="M14" s="69" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="70" t="s">
-        <v>35</v>
+      <c r="N14" s="66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O14" s="56" t="s">
+        <v>21</v>
       </c>
       <c r="P14" s="0"/>
       <c r="Q14" s="0"/>
@@ -15421,49 +14316,55 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="n">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="24" t="n">
         <v>288.88</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="71" t="s">
+      <c r="B15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="30" t="s">
+      <c r="C15" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="25" t="n">
+        <v>3800</v>
+      </c>
+      <c r="G15" s="25" t="n">
+        <v>313178</v>
+      </c>
+      <c r="H15" s="27" t="n">
+        <v>313173</v>
+      </c>
+      <c r="I15" s="27" t="n">
+        <v>70</v>
+      </c>
+      <c r="J15" s="27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" s="27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="30" t="n">
-        <v>315826</v>
-      </c>
-      <c r="G15" s="33" t="n">
-        <v>313173</v>
-      </c>
-      <c r="H15" s="33" t="n">
-        <v>70</v>
-      </c>
-      <c r="I15" s="33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" s="33" t="n">
+      <c r="M15" s="27" t="n">
         <v>1000</v>
       </c>
-      <c r="K15" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M15" s="72" t="n">
+      <c r="N15" s="67" t="n">
         <v>2.07</v>
       </c>
-      <c r="N15" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="P15" s="0"/>
+      <c r="O15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="68" t="s">
+        <v>36</v>
+      </c>
       <c r="Q15" s="0"/>
       <c r="R15" s="0"/>
       <c r="S15" s="0"/>
@@ -16473,49 +15374,51 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="n">
-        <v>289.437</v>
-      </c>
-      <c r="B16" s="24" t="s">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="30" t="n">
+        <v>288.88</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="31" t="n">
+        <v>3800</v>
+      </c>
+      <c r="G16" s="31" t="n">
+        <v>315826</v>
+      </c>
+      <c r="H16" s="34" t="n">
+        <v>313173</v>
+      </c>
+      <c r="I16" s="34" t="n">
+        <v>70</v>
+      </c>
+      <c r="J16" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" s="34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N16" s="69" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="24" t="n">
-        <v>317961</v>
-      </c>
-      <c r="G16" s="26" t="n">
-        <v>317954</v>
-      </c>
-      <c r="H16" s="26" t="n">
-        <v>45</v>
-      </c>
-      <c r="I16" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" s="26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M16" s="27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N16" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
       <c r="Q16" s="0"/>
       <c r="R16" s="0"/>
       <c r="S16" s="0"/>
@@ -17525,48 +16428,50 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="73" t="n">
-        <v>289.274</v>
-      </c>
-      <c r="B17" s="74" t="s">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="24" t="n">
+        <v>289.437</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="74" t="n">
-        <v>317960</v>
-      </c>
-      <c r="G17" s="76" t="n">
+      <c r="D17" s="32"/>
+      <c r="E17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="25" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G17" s="25" t="n">
+        <v>317961</v>
+      </c>
+      <c r="H17" s="27" t="n">
         <v>317954</v>
       </c>
-      <c r="H17" s="76" t="n">
+      <c r="I17" s="27" t="n">
         <v>45</v>
       </c>
-      <c r="I17" s="76" t="n">
+      <c r="J17" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="J17" s="76" t="n">
+      <c r="K17" s="27" t="n">
         <v>1000</v>
       </c>
-      <c r="K17" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="76" t="n">
+      <c r="L17" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="27" t="n">
         <v>1000</v>
       </c>
-      <c r="M17" s="77" t="n">
+      <c r="N17" s="28" t="n">
         <v>2.1</v>
       </c>
-      <c r="N17" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" s="0"/>
+      <c r="O17" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P17" s="0"/>
       <c r="Q17" s="0"/>
       <c r="R17" s="0"/>
@@ -18577,46 +17482,50 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="73" t="n">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="70" t="n">
         <v>289.274</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="74" t="s">
+      <c r="B18" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="71" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G18" s="71" t="n">
+        <v>317960</v>
+      </c>
+      <c r="H18" s="72" t="n">
+        <v>317954</v>
+      </c>
+      <c r="I18" s="72" t="n">
+        <v>45</v>
+      </c>
+      <c r="J18" s="72" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" s="72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="74" t="n">
-        <v>317956</v>
-      </c>
-      <c r="G18" s="76" t="n">
-        <v>317954</v>
-      </c>
-      <c r="H18" s="76" t="n">
-        <v>45</v>
-      </c>
-      <c r="I18" s="76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" s="76" t="n">
+      <c r="M18" s="72" t="n">
         <v>1000</v>
       </c>
-      <c r="K18" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="76" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M18" s="77" t="n">
+      <c r="N18" s="73" t="n">
         <v>2.1</v>
       </c>
-      <c r="N18" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="0"/>
+      <c r="O18" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P18" s="0"/>
       <c r="Q18" s="0"/>
       <c r="R18" s="0"/>
@@ -19627,50 +18536,48 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="n">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="70" t="n">
         <v>289.274</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="71" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G19" s="71" t="n">
+        <v>317956</v>
+      </c>
+      <c r="H19" s="72" t="n">
+        <v>317954</v>
+      </c>
+      <c r="I19" s="72" t="n">
+        <v>45</v>
+      </c>
+      <c r="J19" s="72" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" s="72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N19" s="73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="30" t="n">
-        <v>317959</v>
-      </c>
-      <c r="G19" s="33" t="n">
-        <v>317954</v>
-      </c>
-      <c r="H19" s="33" t="n">
-        <v>45</v>
-      </c>
-      <c r="I19" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="J19" s="33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M19" s="34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N19" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" s="0"/>
       <c r="P19" s="0"/>
       <c r="Q19" s="0"/>
       <c r="R19" s="0"/>
@@ -20681,48 +19588,52 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
-        <v>289.423</v>
-      </c>
-      <c r="B20" s="8" t="s">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30" t="n">
+        <v>289.274</v>
+      </c>
+      <c r="B20" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="8" t="s">
+      <c r="C20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="8" t="n">
-        <v>317948</v>
-      </c>
-      <c r="G20" s="10" t="n">
-        <v>317935</v>
-      </c>
-      <c r="H20" s="10" t="n">
+      <c r="E20" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="31" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G20" s="31" t="n">
+        <v>317959</v>
+      </c>
+      <c r="H20" s="34" t="n">
+        <v>317954</v>
+      </c>
+      <c r="I20" s="34" t="n">
         <v>45</v>
       </c>
-      <c r="I20" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" s="10" t="n">
+      <c r="J20" s="34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" s="34" t="n">
         <v>1000</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="10" t="n">
+      <c r="L20" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="34" t="n">
         <v>1000</v>
       </c>
-      <c r="M20" s="11" t="n">
+      <c r="N20" s="35" t="n">
         <v>2.1</v>
       </c>
-      <c r="N20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="0"/>
+      <c r="O20" s="29" t="s">
+        <v>21</v>
+      </c>
       <c r="P20" s="0"/>
       <c r="Q20" s="0"/>
       <c r="R20" s="0"/>
@@ -21733,46 +20644,50 @@
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
         <v>289.423</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15" t="s">
+      <c r="B21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="14" t="s">
+      <c r="C21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>4200</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>317948</v>
+      </c>
+      <c r="H21" s="12" t="n">
+        <v>317935</v>
+      </c>
+      <c r="I21" s="12" t="n">
+        <v>45</v>
+      </c>
+      <c r="J21" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K21" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="14" t="n">
-        <v>317947</v>
-      </c>
-      <c r="G21" s="17" t="n">
-        <v>317935</v>
-      </c>
-      <c r="H21" s="17" t="n">
-        <v>45</v>
-      </c>
-      <c r="I21" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" s="17" t="n">
+      <c r="M21" s="12" t="n">
         <v>1000</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M21" s="18" t="n">
+      <c r="N21" s="13" t="n">
         <v>2.1</v>
       </c>
-      <c r="N21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="0"/>
+      <c r="O21" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="P21" s="0"/>
       <c r="Q21" s="0"/>
       <c r="R21" s="0"/>
@@ -22783,50 +21698,48 @@
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="n">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="n">
         <v>289.423</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="16" t="n">
+        <v>4200</v>
+      </c>
+      <c r="G22" s="16" t="n">
+        <v>317947</v>
+      </c>
+      <c r="H22" s="18" t="n">
+        <v>317935</v>
+      </c>
+      <c r="I22" s="18" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" s="18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N22" s="19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="20" t="n">
-        <v>317949</v>
-      </c>
-      <c r="G22" s="21" t="n">
-        <v>317935</v>
-      </c>
-      <c r="H22" s="21" t="n">
-        <v>45</v>
-      </c>
-      <c r="I22" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J22" s="21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M22" s="22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O22" s="0"/>
       <c r="P22" s="0"/>
       <c r="Q22" s="0"/>
       <c r="R22" s="0"/>
@@ -23837,51 +22750,51 @@
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="80" t="n">
-        <v>290.003</v>
-      </c>
-      <c r="B23" s="81" t="s">
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20" t="n">
+        <v>289.423</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="83" t="s">
+      <c r="D23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="83" t="n">
-        <v>314625</v>
-      </c>
-      <c r="G23" s="84" t="n">
-        <v>312557</v>
-      </c>
-      <c r="H23" s="84" t="n">
-        <v>8</v>
-      </c>
-      <c r="I23" s="84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J23" s="84" t="n">
+      <c r="E23" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="21" t="n">
+        <v>4200</v>
+      </c>
+      <c r="G23" s="21" t="n">
+        <v>317949</v>
+      </c>
+      <c r="H23" s="22" t="n">
+        <v>317935</v>
+      </c>
+      <c r="I23" s="22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J23" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="K23" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="84" t="n">
+      <c r="L23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="M23" s="85" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="N23" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" s="70" t="s">
-        <v>35</v>
+      <c r="N23" s="23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="P23" s="0"/>
       <c r="Q23" s="0"/>
@@ -24893,51 +23806,55 @@
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="87" t="n">
+    <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="75" t="n">
         <v>290.003</v>
       </c>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="88" t="n">
-        <v>315834</v>
-      </c>
-      <c r="G24" s="90" t="n">
+      <c r="D24" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="78" t="n">
+        <v>4400</v>
+      </c>
+      <c r="G24" s="78" t="n">
+        <v>314625</v>
+      </c>
+      <c r="H24" s="79" t="n">
         <v>312557</v>
       </c>
-      <c r="H24" s="90" t="n">
+      <c r="I24" s="79" t="n">
         <v>8</v>
       </c>
-      <c r="I24" s="90" t="n">
+      <c r="J24" s="79" t="n">
         <v>5</v>
       </c>
-      <c r="J24" s="90" t="n">
+      <c r="K24" s="79" t="n">
         <v>1000</v>
       </c>
-      <c r="K24" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="90" t="n">
+      <c r="L24" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="79" t="n">
         <v>1000</v>
       </c>
-      <c r="M24" s="91" t="n">
+      <c r="N24" s="80" t="n">
         <v>2.06</v>
       </c>
-      <c r="N24" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="P24" s="0"/>
+      <c r="O24" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="68" t="s">
+        <v>36</v>
+      </c>
       <c r="Q24" s="0"/>
       <c r="R24" s="0"/>
       <c r="S24" s="0"/>
@@ -25947,2590 +24864,3822 @@
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="80" t="n">
-        <v>290.454</v>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="82" t="n">
+        <v>290.003</v>
       </c>
       <c r="B25" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="84"/>
+      <c r="E25" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="83" t="n">
+        <v>4400</v>
+      </c>
+      <c r="G25" s="83" t="n">
+        <v>315834</v>
+      </c>
+      <c r="H25" s="85" t="n">
+        <v>312557</v>
+      </c>
+      <c r="I25" s="85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" s="85" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" s="85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L25" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N25" s="86" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O25" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="0"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
+      <c r="X25" s="0"/>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
+      <c r="AB25" s="0"/>
+      <c r="AC25" s="0"/>
+      <c r="AD25" s="0"/>
+      <c r="AE25" s="0"/>
+      <c r="AF25" s="0"/>
+      <c r="AG25" s="0"/>
+      <c r="AH25" s="0"/>
+      <c r="AI25" s="0"/>
+      <c r="AJ25" s="0"/>
+      <c r="AK25" s="0"/>
+      <c r="AL25" s="0"/>
+      <c r="AM25" s="0"/>
+      <c r="AN25" s="0"/>
+      <c r="AO25" s="0"/>
+      <c r="AP25" s="0"/>
+      <c r="AQ25" s="0"/>
+      <c r="AR25" s="0"/>
+      <c r="AS25" s="0"/>
+      <c r="AT25" s="0"/>
+      <c r="AU25" s="0"/>
+      <c r="AV25" s="0"/>
+      <c r="AW25" s="0"/>
+      <c r="AX25" s="0"/>
+      <c r="AY25" s="0"/>
+      <c r="AZ25" s="0"/>
+      <c r="BA25" s="0"/>
+      <c r="BB25" s="0"/>
+      <c r="BC25" s="0"/>
+      <c r="BD25" s="0"/>
+      <c r="BE25" s="0"/>
+      <c r="BF25" s="0"/>
+      <c r="BG25" s="0"/>
+      <c r="BH25" s="0"/>
+      <c r="BI25" s="0"/>
+      <c r="BJ25" s="0"/>
+      <c r="BK25" s="0"/>
+      <c r="BL25" s="0"/>
+      <c r="BM25" s="0"/>
+      <c r="BN25" s="0"/>
+      <c r="BO25" s="0"/>
+      <c r="BP25" s="0"/>
+      <c r="BQ25" s="0"/>
+      <c r="BR25" s="0"/>
+      <c r="BS25" s="0"/>
+      <c r="BT25" s="0"/>
+      <c r="BU25" s="0"/>
+      <c r="BV25" s="0"/>
+      <c r="BW25" s="0"/>
+      <c r="BX25" s="0"/>
+      <c r="BY25" s="0"/>
+      <c r="BZ25" s="0"/>
+      <c r="CA25" s="0"/>
+      <c r="CB25" s="0"/>
+      <c r="CC25" s="0"/>
+      <c r="CD25" s="0"/>
+      <c r="CE25" s="0"/>
+      <c r="CF25" s="0"/>
+      <c r="CG25" s="0"/>
+      <c r="CH25" s="0"/>
+      <c r="CI25" s="0"/>
+      <c r="CJ25" s="0"/>
+      <c r="CK25" s="0"/>
+      <c r="CL25" s="0"/>
+      <c r="CM25" s="0"/>
+      <c r="CN25" s="0"/>
+      <c r="CO25" s="0"/>
+      <c r="CP25" s="0"/>
+      <c r="CQ25" s="0"/>
+      <c r="CR25" s="0"/>
+      <c r="CS25" s="0"/>
+      <c r="CT25" s="0"/>
+      <c r="CU25" s="0"/>
+      <c r="CV25" s="0"/>
+      <c r="CW25" s="0"/>
+      <c r="CX25" s="0"/>
+      <c r="CY25" s="0"/>
+      <c r="CZ25" s="0"/>
+      <c r="DA25" s="0"/>
+      <c r="DB25" s="0"/>
+      <c r="DC25" s="0"/>
+      <c r="DD25" s="0"/>
+      <c r="DE25" s="0"/>
+      <c r="DF25" s="0"/>
+      <c r="DG25" s="0"/>
+      <c r="DH25" s="0"/>
+      <c r="DI25" s="0"/>
+      <c r="DJ25" s="0"/>
+      <c r="DK25" s="0"/>
+      <c r="DL25" s="0"/>
+      <c r="DM25" s="0"/>
+      <c r="DN25" s="0"/>
+      <c r="DO25" s="0"/>
+      <c r="DP25" s="0"/>
+      <c r="DQ25" s="0"/>
+      <c r="DR25" s="0"/>
+      <c r="DS25" s="0"/>
+      <c r="DT25" s="0"/>
+      <c r="DU25" s="0"/>
+      <c r="DV25" s="0"/>
+      <c r="DW25" s="0"/>
+      <c r="DX25" s="0"/>
+      <c r="DY25" s="0"/>
+      <c r="DZ25" s="0"/>
+      <c r="EA25" s="0"/>
+      <c r="EB25" s="0"/>
+      <c r="EC25" s="0"/>
+      <c r="ED25" s="0"/>
+      <c r="EE25" s="0"/>
+      <c r="EF25" s="0"/>
+      <c r="EG25" s="0"/>
+      <c r="EH25" s="0"/>
+      <c r="EI25" s="0"/>
+      <c r="EJ25" s="0"/>
+      <c r="EK25" s="0"/>
+      <c r="EL25" s="0"/>
+      <c r="EM25" s="0"/>
+      <c r="EN25" s="0"/>
+      <c r="EO25" s="0"/>
+      <c r="EP25" s="0"/>
+      <c r="EQ25" s="0"/>
+      <c r="ER25" s="0"/>
+      <c r="ES25" s="0"/>
+      <c r="ET25" s="0"/>
+      <c r="EU25" s="0"/>
+      <c r="EV25" s="0"/>
+      <c r="EW25" s="0"/>
+      <c r="EX25" s="0"/>
+      <c r="EY25" s="0"/>
+      <c r="EZ25" s="0"/>
+      <c r="FA25" s="0"/>
+      <c r="FB25" s="0"/>
+      <c r="FC25" s="0"/>
+      <c r="FD25" s="0"/>
+      <c r="FE25" s="0"/>
+      <c r="FF25" s="0"/>
+      <c r="FG25" s="0"/>
+      <c r="FH25" s="0"/>
+      <c r="FI25" s="0"/>
+      <c r="FJ25" s="0"/>
+      <c r="FK25" s="0"/>
+      <c r="FL25" s="0"/>
+      <c r="FM25" s="0"/>
+      <c r="FN25" s="0"/>
+      <c r="FO25" s="0"/>
+      <c r="FP25" s="0"/>
+      <c r="FQ25" s="0"/>
+      <c r="FR25" s="0"/>
+      <c r="FS25" s="0"/>
+      <c r="FT25" s="0"/>
+      <c r="FU25" s="0"/>
+      <c r="FV25" s="0"/>
+      <c r="FW25" s="0"/>
+      <c r="FX25" s="0"/>
+      <c r="FY25" s="0"/>
+      <c r="FZ25" s="0"/>
+      <c r="GA25" s="0"/>
+      <c r="GB25" s="0"/>
+      <c r="GC25" s="0"/>
+      <c r="GD25" s="0"/>
+      <c r="GE25" s="0"/>
+      <c r="GF25" s="0"/>
+      <c r="GG25" s="0"/>
+      <c r="GH25" s="0"/>
+      <c r="GI25" s="0"/>
+      <c r="GJ25" s="0"/>
+      <c r="GK25" s="0"/>
+      <c r="GL25" s="0"/>
+      <c r="GM25" s="0"/>
+      <c r="GN25" s="0"/>
+      <c r="GO25" s="0"/>
+      <c r="GP25" s="0"/>
+      <c r="GQ25" s="0"/>
+      <c r="GR25" s="0"/>
+      <c r="GS25" s="0"/>
+      <c r="GT25" s="0"/>
+      <c r="GU25" s="0"/>
+      <c r="GV25" s="0"/>
+      <c r="GW25" s="0"/>
+      <c r="GX25" s="0"/>
+      <c r="GY25" s="0"/>
+      <c r="GZ25" s="0"/>
+      <c r="HA25" s="0"/>
+      <c r="HB25" s="0"/>
+      <c r="HC25" s="0"/>
+      <c r="HD25" s="0"/>
+      <c r="HE25" s="0"/>
+      <c r="HF25" s="0"/>
+      <c r="HG25" s="0"/>
+      <c r="HH25" s="0"/>
+      <c r="HI25" s="0"/>
+      <c r="HJ25" s="0"/>
+      <c r="HK25" s="0"/>
+      <c r="HL25" s="0"/>
+      <c r="HM25" s="0"/>
+      <c r="HN25" s="0"/>
+      <c r="HO25" s="0"/>
+      <c r="HP25" s="0"/>
+      <c r="HQ25" s="0"/>
+      <c r="HR25" s="0"/>
+      <c r="HS25" s="0"/>
+      <c r="HT25" s="0"/>
+      <c r="HU25" s="0"/>
+      <c r="HV25" s="0"/>
+      <c r="HW25" s="0"/>
+      <c r="HX25" s="0"/>
+      <c r="HY25" s="0"/>
+      <c r="HZ25" s="0"/>
+      <c r="IA25" s="0"/>
+      <c r="IB25" s="0"/>
+      <c r="IC25" s="0"/>
+      <c r="ID25" s="0"/>
+      <c r="IE25" s="0"/>
+      <c r="IF25" s="0"/>
+      <c r="IG25" s="0"/>
+      <c r="IH25" s="0"/>
+      <c r="II25" s="0"/>
+      <c r="IJ25" s="0"/>
+      <c r="IK25" s="0"/>
+      <c r="IL25" s="0"/>
+      <c r="IM25" s="0"/>
+      <c r="IN25" s="0"/>
+      <c r="IO25" s="0"/>
+      <c r="IP25" s="0"/>
+      <c r="IQ25" s="0"/>
+      <c r="IR25" s="0"/>
+      <c r="IS25" s="0"/>
+      <c r="IT25" s="0"/>
+      <c r="IU25" s="0"/>
+      <c r="IV25" s="0"/>
+      <c r="IW25" s="0"/>
+      <c r="IX25" s="0"/>
+      <c r="IY25" s="0"/>
+      <c r="IZ25" s="0"/>
+      <c r="JA25" s="0"/>
+      <c r="JB25" s="0"/>
+      <c r="JC25" s="0"/>
+      <c r="JD25" s="0"/>
+      <c r="JE25" s="0"/>
+      <c r="JF25" s="0"/>
+      <c r="JG25" s="0"/>
+      <c r="JH25" s="0"/>
+      <c r="JI25" s="0"/>
+      <c r="JJ25" s="0"/>
+      <c r="JK25" s="0"/>
+      <c r="JL25" s="0"/>
+      <c r="JM25" s="0"/>
+      <c r="JN25" s="0"/>
+      <c r="JO25" s="0"/>
+      <c r="JP25" s="0"/>
+      <c r="JQ25" s="0"/>
+      <c r="JR25" s="0"/>
+      <c r="JS25" s="0"/>
+      <c r="JT25" s="0"/>
+      <c r="JU25" s="0"/>
+      <c r="JV25" s="0"/>
+      <c r="JW25" s="0"/>
+      <c r="JX25" s="0"/>
+      <c r="JY25" s="0"/>
+      <c r="JZ25" s="0"/>
+      <c r="KA25" s="0"/>
+      <c r="KB25" s="0"/>
+      <c r="KC25" s="0"/>
+      <c r="KD25" s="0"/>
+      <c r="KE25" s="0"/>
+      <c r="KF25" s="0"/>
+      <c r="KG25" s="0"/>
+      <c r="KH25" s="0"/>
+      <c r="KI25" s="0"/>
+      <c r="KJ25" s="0"/>
+      <c r="KK25" s="0"/>
+      <c r="KL25" s="0"/>
+      <c r="KM25" s="0"/>
+      <c r="KN25" s="0"/>
+      <c r="KO25" s="0"/>
+      <c r="KP25" s="0"/>
+      <c r="KQ25" s="0"/>
+      <c r="KR25" s="0"/>
+      <c r="KS25" s="0"/>
+      <c r="KT25" s="0"/>
+      <c r="KU25" s="0"/>
+      <c r="KV25" s="0"/>
+      <c r="KW25" s="0"/>
+      <c r="KX25" s="0"/>
+      <c r="KY25" s="0"/>
+      <c r="KZ25" s="0"/>
+      <c r="LA25" s="0"/>
+      <c r="LB25" s="0"/>
+      <c r="LC25" s="0"/>
+      <c r="LD25" s="0"/>
+      <c r="LE25" s="0"/>
+      <c r="LF25" s="0"/>
+      <c r="LG25" s="0"/>
+      <c r="LH25" s="0"/>
+      <c r="LI25" s="0"/>
+      <c r="LJ25" s="0"/>
+      <c r="LK25" s="0"/>
+      <c r="LL25" s="0"/>
+      <c r="LM25" s="0"/>
+      <c r="LN25" s="0"/>
+      <c r="LO25" s="0"/>
+      <c r="LP25" s="0"/>
+      <c r="LQ25" s="0"/>
+      <c r="LR25" s="0"/>
+      <c r="LS25" s="0"/>
+      <c r="LT25" s="0"/>
+      <c r="LU25" s="0"/>
+      <c r="LV25" s="0"/>
+      <c r="LW25" s="0"/>
+      <c r="LX25" s="0"/>
+      <c r="LY25" s="0"/>
+      <c r="LZ25" s="0"/>
+      <c r="MA25" s="0"/>
+      <c r="MB25" s="0"/>
+      <c r="MC25" s="0"/>
+      <c r="MD25" s="0"/>
+      <c r="ME25" s="0"/>
+      <c r="MF25" s="0"/>
+      <c r="MG25" s="0"/>
+      <c r="MH25" s="0"/>
+      <c r="MI25" s="0"/>
+      <c r="MJ25" s="0"/>
+      <c r="MK25" s="0"/>
+      <c r="ML25" s="0"/>
+      <c r="MM25" s="0"/>
+      <c r="MN25" s="0"/>
+      <c r="MO25" s="0"/>
+      <c r="MP25" s="0"/>
+      <c r="MQ25" s="0"/>
+      <c r="MR25" s="0"/>
+      <c r="MS25" s="0"/>
+      <c r="MT25" s="0"/>
+      <c r="MU25" s="0"/>
+      <c r="MV25" s="0"/>
+      <c r="MW25" s="0"/>
+      <c r="MX25" s="0"/>
+      <c r="MY25" s="0"/>
+      <c r="MZ25" s="0"/>
+      <c r="NA25" s="0"/>
+      <c r="NB25" s="0"/>
+      <c r="NC25" s="0"/>
+      <c r="ND25" s="0"/>
+      <c r="NE25" s="0"/>
+      <c r="NF25" s="0"/>
+      <c r="NG25" s="0"/>
+      <c r="NH25" s="0"/>
+      <c r="NI25" s="0"/>
+      <c r="NJ25" s="0"/>
+      <c r="NK25" s="0"/>
+      <c r="NL25" s="0"/>
+      <c r="NM25" s="0"/>
+      <c r="NN25" s="0"/>
+      <c r="NO25" s="0"/>
+      <c r="NP25" s="0"/>
+      <c r="NQ25" s="0"/>
+      <c r="NR25" s="0"/>
+      <c r="NS25" s="0"/>
+      <c r="NT25" s="0"/>
+      <c r="NU25" s="0"/>
+      <c r="NV25" s="0"/>
+      <c r="NW25" s="0"/>
+      <c r="NX25" s="0"/>
+      <c r="NY25" s="0"/>
+      <c r="NZ25" s="0"/>
+      <c r="OA25" s="0"/>
+      <c r="OB25" s="0"/>
+      <c r="OC25" s="0"/>
+      <c r="OD25" s="0"/>
+      <c r="OE25" s="0"/>
+      <c r="OF25" s="0"/>
+      <c r="OG25" s="0"/>
+      <c r="OH25" s="0"/>
+      <c r="OI25" s="0"/>
+      <c r="OJ25" s="0"/>
+      <c r="OK25" s="0"/>
+      <c r="OL25" s="0"/>
+      <c r="OM25" s="0"/>
+      <c r="ON25" s="0"/>
+      <c r="OO25" s="0"/>
+      <c r="OP25" s="0"/>
+      <c r="OQ25" s="0"/>
+      <c r="OR25" s="0"/>
+      <c r="OS25" s="0"/>
+      <c r="OT25" s="0"/>
+      <c r="OU25" s="0"/>
+      <c r="OV25" s="0"/>
+      <c r="OW25" s="0"/>
+      <c r="OX25" s="0"/>
+      <c r="OY25" s="0"/>
+      <c r="OZ25" s="0"/>
+      <c r="PA25" s="0"/>
+      <c r="PB25" s="0"/>
+      <c r="PC25" s="0"/>
+      <c r="PD25" s="0"/>
+      <c r="PE25" s="0"/>
+      <c r="PF25" s="0"/>
+      <c r="PG25" s="0"/>
+      <c r="PH25" s="0"/>
+      <c r="PI25" s="0"/>
+      <c r="PJ25" s="0"/>
+      <c r="PK25" s="0"/>
+      <c r="PL25" s="0"/>
+      <c r="PM25" s="0"/>
+      <c r="PN25" s="0"/>
+      <c r="PO25" s="0"/>
+      <c r="PP25" s="0"/>
+      <c r="PQ25" s="0"/>
+      <c r="PR25" s="0"/>
+      <c r="PS25" s="0"/>
+      <c r="PT25" s="0"/>
+      <c r="PU25" s="0"/>
+      <c r="PV25" s="0"/>
+      <c r="PW25" s="0"/>
+      <c r="PX25" s="0"/>
+      <c r="PY25" s="0"/>
+      <c r="PZ25" s="0"/>
+      <c r="QA25" s="0"/>
+      <c r="QB25" s="0"/>
+      <c r="QC25" s="0"/>
+      <c r="QD25" s="0"/>
+      <c r="QE25" s="0"/>
+      <c r="QF25" s="0"/>
+      <c r="QG25" s="0"/>
+      <c r="QH25" s="0"/>
+      <c r="QI25" s="0"/>
+      <c r="QJ25" s="0"/>
+      <c r="QK25" s="0"/>
+      <c r="QL25" s="0"/>
+      <c r="QM25" s="0"/>
+      <c r="QN25" s="0"/>
+      <c r="QO25" s="0"/>
+      <c r="QP25" s="0"/>
+      <c r="QQ25" s="0"/>
+      <c r="QR25" s="0"/>
+      <c r="QS25" s="0"/>
+      <c r="QT25" s="0"/>
+      <c r="QU25" s="0"/>
+      <c r="QV25" s="0"/>
+      <c r="QW25" s="0"/>
+      <c r="QX25" s="0"/>
+      <c r="QY25" s="0"/>
+      <c r="QZ25" s="0"/>
+      <c r="RA25" s="0"/>
+      <c r="RB25" s="0"/>
+      <c r="RC25" s="0"/>
+      <c r="RD25" s="0"/>
+      <c r="RE25" s="0"/>
+      <c r="RF25" s="0"/>
+      <c r="RG25" s="0"/>
+      <c r="RH25" s="0"/>
+      <c r="RI25" s="0"/>
+      <c r="RJ25" s="0"/>
+      <c r="RK25" s="0"/>
+      <c r="RL25" s="0"/>
+      <c r="RM25" s="0"/>
+      <c r="RN25" s="0"/>
+      <c r="RO25" s="0"/>
+      <c r="RP25" s="0"/>
+      <c r="RQ25" s="0"/>
+      <c r="RR25" s="0"/>
+      <c r="RS25" s="0"/>
+      <c r="RT25" s="0"/>
+      <c r="RU25" s="0"/>
+      <c r="RV25" s="0"/>
+      <c r="RW25" s="0"/>
+      <c r="RX25" s="0"/>
+      <c r="RY25" s="0"/>
+      <c r="RZ25" s="0"/>
+      <c r="SA25" s="0"/>
+      <c r="SB25" s="0"/>
+      <c r="SC25" s="0"/>
+      <c r="SD25" s="0"/>
+      <c r="SE25" s="0"/>
+      <c r="SF25" s="0"/>
+      <c r="SG25" s="0"/>
+      <c r="SH25" s="0"/>
+      <c r="SI25" s="0"/>
+      <c r="SJ25" s="0"/>
+      <c r="SK25" s="0"/>
+      <c r="SL25" s="0"/>
+      <c r="SM25" s="0"/>
+      <c r="SN25" s="0"/>
+      <c r="SO25" s="0"/>
+      <c r="SP25" s="0"/>
+      <c r="SQ25" s="0"/>
+      <c r="SR25" s="0"/>
+      <c r="SS25" s="0"/>
+      <c r="ST25" s="0"/>
+      <c r="SU25" s="0"/>
+      <c r="SV25" s="0"/>
+      <c r="SW25" s="0"/>
+      <c r="SX25" s="0"/>
+      <c r="SY25" s="0"/>
+      <c r="SZ25" s="0"/>
+      <c r="TA25" s="0"/>
+      <c r="TB25" s="0"/>
+      <c r="TC25" s="0"/>
+      <c r="TD25" s="0"/>
+      <c r="TE25" s="0"/>
+      <c r="TF25" s="0"/>
+      <c r="TG25" s="0"/>
+      <c r="TH25" s="0"/>
+      <c r="TI25" s="0"/>
+      <c r="TJ25" s="0"/>
+      <c r="TK25" s="0"/>
+      <c r="TL25" s="0"/>
+      <c r="TM25" s="0"/>
+      <c r="TN25" s="0"/>
+      <c r="TO25" s="0"/>
+      <c r="TP25" s="0"/>
+      <c r="TQ25" s="0"/>
+      <c r="TR25" s="0"/>
+      <c r="TS25" s="0"/>
+      <c r="TT25" s="0"/>
+      <c r="TU25" s="0"/>
+      <c r="TV25" s="0"/>
+      <c r="TW25" s="0"/>
+      <c r="TX25" s="0"/>
+      <c r="TY25" s="0"/>
+      <c r="TZ25" s="0"/>
+      <c r="UA25" s="0"/>
+      <c r="UB25" s="0"/>
+      <c r="UC25" s="0"/>
+      <c r="UD25" s="0"/>
+      <c r="UE25" s="0"/>
+      <c r="UF25" s="0"/>
+      <c r="UG25" s="0"/>
+      <c r="UH25" s="0"/>
+      <c r="UI25" s="0"/>
+      <c r="UJ25" s="0"/>
+      <c r="UK25" s="0"/>
+      <c r="UL25" s="0"/>
+      <c r="UM25" s="0"/>
+      <c r="UN25" s="0"/>
+      <c r="UO25" s="0"/>
+      <c r="UP25" s="0"/>
+      <c r="UQ25" s="0"/>
+      <c r="UR25" s="0"/>
+      <c r="US25" s="0"/>
+      <c r="UT25" s="0"/>
+      <c r="UU25" s="0"/>
+      <c r="UV25" s="0"/>
+      <c r="UW25" s="0"/>
+      <c r="UX25" s="0"/>
+      <c r="UY25" s="0"/>
+      <c r="UZ25" s="0"/>
+      <c r="VA25" s="0"/>
+      <c r="VB25" s="0"/>
+      <c r="VC25" s="0"/>
+      <c r="VD25" s="0"/>
+      <c r="VE25" s="0"/>
+      <c r="VF25" s="0"/>
+      <c r="VG25" s="0"/>
+      <c r="VH25" s="0"/>
+      <c r="VI25" s="0"/>
+      <c r="VJ25" s="0"/>
+      <c r="VK25" s="0"/>
+      <c r="VL25" s="0"/>
+      <c r="VM25" s="0"/>
+      <c r="VN25" s="0"/>
+      <c r="VO25" s="0"/>
+      <c r="VP25" s="0"/>
+      <c r="VQ25" s="0"/>
+      <c r="VR25" s="0"/>
+      <c r="VS25" s="0"/>
+      <c r="VT25" s="0"/>
+      <c r="VU25" s="0"/>
+      <c r="VV25" s="0"/>
+      <c r="VW25" s="0"/>
+      <c r="VX25" s="0"/>
+      <c r="VY25" s="0"/>
+      <c r="VZ25" s="0"/>
+      <c r="WA25" s="0"/>
+      <c r="WB25" s="0"/>
+      <c r="WC25" s="0"/>
+      <c r="WD25" s="0"/>
+      <c r="WE25" s="0"/>
+      <c r="WF25" s="0"/>
+      <c r="WG25" s="0"/>
+      <c r="WH25" s="0"/>
+      <c r="WI25" s="0"/>
+      <c r="WJ25" s="0"/>
+      <c r="WK25" s="0"/>
+      <c r="WL25" s="0"/>
+      <c r="WM25" s="0"/>
+      <c r="WN25" s="0"/>
+      <c r="WO25" s="0"/>
+      <c r="WP25" s="0"/>
+      <c r="WQ25" s="0"/>
+      <c r="WR25" s="0"/>
+      <c r="WS25" s="0"/>
+      <c r="WT25" s="0"/>
+      <c r="WU25" s="0"/>
+      <c r="WV25" s="0"/>
+      <c r="WW25" s="0"/>
+      <c r="WX25" s="0"/>
+      <c r="WY25" s="0"/>
+      <c r="WZ25" s="0"/>
+      <c r="XA25" s="0"/>
+      <c r="XB25" s="0"/>
+      <c r="XC25" s="0"/>
+      <c r="XD25" s="0"/>
+      <c r="XE25" s="0"/>
+      <c r="XF25" s="0"/>
+      <c r="XG25" s="0"/>
+      <c r="XH25" s="0"/>
+      <c r="XI25" s="0"/>
+      <c r="XJ25" s="0"/>
+      <c r="XK25" s="0"/>
+      <c r="XL25" s="0"/>
+      <c r="XM25" s="0"/>
+      <c r="XN25" s="0"/>
+      <c r="XO25" s="0"/>
+      <c r="XP25" s="0"/>
+      <c r="XQ25" s="0"/>
+      <c r="XR25" s="0"/>
+      <c r="XS25" s="0"/>
+      <c r="XT25" s="0"/>
+      <c r="XU25" s="0"/>
+      <c r="XV25" s="0"/>
+      <c r="XW25" s="0"/>
+      <c r="XX25" s="0"/>
+      <c r="XY25" s="0"/>
+      <c r="XZ25" s="0"/>
+      <c r="YA25" s="0"/>
+      <c r="YB25" s="0"/>
+      <c r="YC25" s="0"/>
+      <c r="YD25" s="0"/>
+      <c r="YE25" s="0"/>
+      <c r="YF25" s="0"/>
+      <c r="YG25" s="0"/>
+      <c r="YH25" s="0"/>
+      <c r="YI25" s="0"/>
+      <c r="YJ25" s="0"/>
+      <c r="YK25" s="0"/>
+      <c r="YL25" s="0"/>
+      <c r="YM25" s="0"/>
+      <c r="YN25" s="0"/>
+      <c r="YO25" s="0"/>
+      <c r="YP25" s="0"/>
+      <c r="YQ25" s="0"/>
+      <c r="YR25" s="0"/>
+      <c r="YS25" s="0"/>
+      <c r="YT25" s="0"/>
+      <c r="YU25" s="0"/>
+      <c r="YV25" s="0"/>
+      <c r="YW25" s="0"/>
+      <c r="YX25" s="0"/>
+      <c r="YY25" s="0"/>
+      <c r="YZ25" s="0"/>
+      <c r="ZA25" s="0"/>
+      <c r="ZB25" s="0"/>
+      <c r="ZC25" s="0"/>
+      <c r="ZD25" s="0"/>
+      <c r="ZE25" s="0"/>
+      <c r="ZF25" s="0"/>
+      <c r="ZG25" s="0"/>
+      <c r="ZH25" s="0"/>
+      <c r="ZI25" s="0"/>
+      <c r="ZJ25" s="0"/>
+      <c r="ZK25" s="0"/>
+      <c r="ZL25" s="0"/>
+      <c r="ZM25" s="0"/>
+      <c r="ZN25" s="0"/>
+      <c r="ZO25" s="0"/>
+      <c r="ZP25" s="0"/>
+      <c r="ZQ25" s="0"/>
+      <c r="ZR25" s="0"/>
+      <c r="ZS25" s="0"/>
+      <c r="ZT25" s="0"/>
+      <c r="ZU25" s="0"/>
+      <c r="ZV25" s="0"/>
+      <c r="ZW25" s="0"/>
+      <c r="ZX25" s="0"/>
+      <c r="ZY25" s="0"/>
+      <c r="ZZ25" s="0"/>
+      <c r="AAA25" s="0"/>
+      <c r="AAB25" s="0"/>
+      <c r="AAC25" s="0"/>
+      <c r="AAD25" s="0"/>
+      <c r="AAE25" s="0"/>
+      <c r="AAF25" s="0"/>
+      <c r="AAG25" s="0"/>
+      <c r="AAH25" s="0"/>
+      <c r="AAI25" s="0"/>
+      <c r="AAJ25" s="0"/>
+      <c r="AAK25" s="0"/>
+      <c r="AAL25" s="0"/>
+      <c r="AAM25" s="0"/>
+      <c r="AAN25" s="0"/>
+      <c r="AAO25" s="0"/>
+      <c r="AAP25" s="0"/>
+      <c r="AAQ25" s="0"/>
+      <c r="AAR25" s="0"/>
+      <c r="AAS25" s="0"/>
+      <c r="AAT25" s="0"/>
+      <c r="AAU25" s="0"/>
+      <c r="AAV25" s="0"/>
+      <c r="AAW25" s="0"/>
+      <c r="AAX25" s="0"/>
+      <c r="AAY25" s="0"/>
+      <c r="AAZ25" s="0"/>
+      <c r="ABA25" s="0"/>
+      <c r="ABB25" s="0"/>
+      <c r="ABC25" s="0"/>
+      <c r="ABD25" s="0"/>
+      <c r="ABE25" s="0"/>
+      <c r="ABF25" s="0"/>
+      <c r="ABG25" s="0"/>
+      <c r="ABH25" s="0"/>
+      <c r="ABI25" s="0"/>
+      <c r="ABJ25" s="0"/>
+      <c r="ABK25" s="0"/>
+      <c r="ABL25" s="0"/>
+      <c r="ABM25" s="0"/>
+      <c r="ABN25" s="0"/>
+      <c r="ABO25" s="0"/>
+      <c r="ABP25" s="0"/>
+      <c r="ABQ25" s="0"/>
+      <c r="ABR25" s="0"/>
+      <c r="ABS25" s="0"/>
+      <c r="ABT25" s="0"/>
+      <c r="ABU25" s="0"/>
+      <c r="ABV25" s="0"/>
+      <c r="ABW25" s="0"/>
+      <c r="ABX25" s="0"/>
+      <c r="ABY25" s="0"/>
+      <c r="ABZ25" s="0"/>
+      <c r="ACA25" s="0"/>
+      <c r="ACB25" s="0"/>
+      <c r="ACC25" s="0"/>
+      <c r="ACD25" s="0"/>
+      <c r="ACE25" s="0"/>
+      <c r="ACF25" s="0"/>
+      <c r="ACG25" s="0"/>
+      <c r="ACH25" s="0"/>
+      <c r="ACI25" s="0"/>
+      <c r="ACJ25" s="0"/>
+      <c r="ACK25" s="0"/>
+      <c r="ACL25" s="0"/>
+      <c r="ACM25" s="0"/>
+      <c r="ACN25" s="0"/>
+      <c r="ACO25" s="0"/>
+      <c r="ACP25" s="0"/>
+      <c r="ACQ25" s="0"/>
+      <c r="ACR25" s="0"/>
+      <c r="ACS25" s="0"/>
+      <c r="ACT25" s="0"/>
+      <c r="ACU25" s="0"/>
+      <c r="ACV25" s="0"/>
+      <c r="ACW25" s="0"/>
+      <c r="ACX25" s="0"/>
+      <c r="ACY25" s="0"/>
+      <c r="ACZ25" s="0"/>
+      <c r="ADA25" s="0"/>
+      <c r="ADB25" s="0"/>
+      <c r="ADC25" s="0"/>
+      <c r="ADD25" s="0"/>
+      <c r="ADE25" s="0"/>
+      <c r="ADF25" s="0"/>
+      <c r="ADG25" s="0"/>
+      <c r="ADH25" s="0"/>
+      <c r="ADI25" s="0"/>
+      <c r="ADJ25" s="0"/>
+      <c r="ADK25" s="0"/>
+      <c r="ADL25" s="0"/>
+      <c r="ADM25" s="0"/>
+      <c r="ADN25" s="0"/>
+      <c r="ADO25" s="0"/>
+      <c r="ADP25" s="0"/>
+      <c r="ADQ25" s="0"/>
+      <c r="ADR25" s="0"/>
+      <c r="ADS25" s="0"/>
+      <c r="ADT25" s="0"/>
+      <c r="ADU25" s="0"/>
+      <c r="ADV25" s="0"/>
+      <c r="ADW25" s="0"/>
+      <c r="ADX25" s="0"/>
+      <c r="ADY25" s="0"/>
+      <c r="ADZ25" s="0"/>
+      <c r="AEA25" s="0"/>
+      <c r="AEB25" s="0"/>
+      <c r="AEC25" s="0"/>
+      <c r="AED25" s="0"/>
+      <c r="AEE25" s="0"/>
+      <c r="AEF25" s="0"/>
+      <c r="AEG25" s="0"/>
+      <c r="AEH25" s="0"/>
+      <c r="AEI25" s="0"/>
+      <c r="AEJ25" s="0"/>
+      <c r="AEK25" s="0"/>
+      <c r="AEL25" s="0"/>
+      <c r="AEM25" s="0"/>
+      <c r="AEN25" s="0"/>
+      <c r="AEO25" s="0"/>
+      <c r="AEP25" s="0"/>
+      <c r="AEQ25" s="0"/>
+      <c r="AER25" s="0"/>
+      <c r="AES25" s="0"/>
+      <c r="AET25" s="0"/>
+      <c r="AEU25" s="0"/>
+      <c r="AEV25" s="0"/>
+      <c r="AEW25" s="0"/>
+      <c r="AEX25" s="0"/>
+      <c r="AEY25" s="0"/>
+      <c r="AEZ25" s="0"/>
+      <c r="AFA25" s="0"/>
+      <c r="AFB25" s="0"/>
+      <c r="AFC25" s="0"/>
+      <c r="AFD25" s="0"/>
+      <c r="AFE25" s="0"/>
+      <c r="AFF25" s="0"/>
+      <c r="AFG25" s="0"/>
+      <c r="AFH25" s="0"/>
+      <c r="AFI25" s="0"/>
+      <c r="AFJ25" s="0"/>
+      <c r="AFK25" s="0"/>
+      <c r="AFL25" s="0"/>
+      <c r="AFM25" s="0"/>
+      <c r="AFN25" s="0"/>
+      <c r="AFO25" s="0"/>
+      <c r="AFP25" s="0"/>
+      <c r="AFQ25" s="0"/>
+      <c r="AFR25" s="0"/>
+      <c r="AFS25" s="0"/>
+      <c r="AFT25" s="0"/>
+      <c r="AFU25" s="0"/>
+      <c r="AFV25" s="0"/>
+      <c r="AFW25" s="0"/>
+      <c r="AFX25" s="0"/>
+      <c r="AFY25" s="0"/>
+      <c r="AFZ25" s="0"/>
+      <c r="AGA25" s="0"/>
+      <c r="AGB25" s="0"/>
+      <c r="AGC25" s="0"/>
+      <c r="AGD25" s="0"/>
+      <c r="AGE25" s="0"/>
+      <c r="AGF25" s="0"/>
+      <c r="AGG25" s="0"/>
+      <c r="AGH25" s="0"/>
+      <c r="AGI25" s="0"/>
+      <c r="AGJ25" s="0"/>
+      <c r="AGK25" s="0"/>
+      <c r="AGL25" s="0"/>
+      <c r="AGM25" s="0"/>
+      <c r="AGN25" s="0"/>
+      <c r="AGO25" s="0"/>
+      <c r="AGP25" s="0"/>
+      <c r="AGQ25" s="0"/>
+      <c r="AGR25" s="0"/>
+      <c r="AGS25" s="0"/>
+      <c r="AGT25" s="0"/>
+      <c r="AGU25" s="0"/>
+      <c r="AGV25" s="0"/>
+      <c r="AGW25" s="0"/>
+      <c r="AGX25" s="0"/>
+      <c r="AGY25" s="0"/>
+      <c r="AGZ25" s="0"/>
+      <c r="AHA25" s="0"/>
+      <c r="AHB25" s="0"/>
+      <c r="AHC25" s="0"/>
+      <c r="AHD25" s="0"/>
+      <c r="AHE25" s="0"/>
+      <c r="AHF25" s="0"/>
+      <c r="AHG25" s="0"/>
+      <c r="AHH25" s="0"/>
+      <c r="AHI25" s="0"/>
+      <c r="AHJ25" s="0"/>
+      <c r="AHK25" s="0"/>
+      <c r="AHL25" s="0"/>
+      <c r="AHM25" s="0"/>
+      <c r="AHN25" s="0"/>
+      <c r="AHO25" s="0"/>
+      <c r="AHP25" s="0"/>
+      <c r="AHQ25" s="0"/>
+      <c r="AHR25" s="0"/>
+      <c r="AHS25" s="0"/>
+      <c r="AHT25" s="0"/>
+      <c r="AHU25" s="0"/>
+      <c r="AHV25" s="0"/>
+      <c r="AHW25" s="0"/>
+      <c r="AHX25" s="0"/>
+      <c r="AHY25" s="0"/>
+      <c r="AHZ25" s="0"/>
+      <c r="AIA25" s="0"/>
+      <c r="AIB25" s="0"/>
+      <c r="AIC25" s="0"/>
+      <c r="AID25" s="0"/>
+      <c r="AIE25" s="0"/>
+      <c r="AIF25" s="0"/>
+      <c r="AIG25" s="0"/>
+      <c r="AIH25" s="0"/>
+      <c r="AII25" s="0"/>
+      <c r="AIJ25" s="0"/>
+      <c r="AIK25" s="0"/>
+      <c r="AIL25" s="0"/>
+      <c r="AIM25" s="0"/>
+      <c r="AIN25" s="0"/>
+      <c r="AIO25" s="0"/>
+      <c r="AIP25" s="0"/>
+      <c r="AIQ25" s="0"/>
+      <c r="AIR25" s="0"/>
+      <c r="AIS25" s="0"/>
+      <c r="AIT25" s="0"/>
+      <c r="AIU25" s="0"/>
+      <c r="AIV25" s="0"/>
+      <c r="AIW25" s="0"/>
+      <c r="AIX25" s="0"/>
+      <c r="AIY25" s="0"/>
+      <c r="AIZ25" s="0"/>
+      <c r="AJA25" s="0"/>
+      <c r="AJB25" s="0"/>
+      <c r="AJC25" s="0"/>
+      <c r="AJD25" s="0"/>
+      <c r="AJE25" s="0"/>
+      <c r="AJF25" s="0"/>
+      <c r="AJG25" s="0"/>
+      <c r="AJH25" s="0"/>
+      <c r="AJI25" s="0"/>
+      <c r="AJJ25" s="0"/>
+      <c r="AJK25" s="0"/>
+      <c r="AJL25" s="0"/>
+      <c r="AJM25" s="0"/>
+      <c r="AJN25" s="0"/>
+      <c r="AJO25" s="0"/>
+      <c r="AJP25" s="0"/>
+      <c r="AJQ25" s="0"/>
+      <c r="AJR25" s="0"/>
+      <c r="AJS25" s="0"/>
+      <c r="AJT25" s="0"/>
+      <c r="AJU25" s="0"/>
+      <c r="AJV25" s="0"/>
+      <c r="AJW25" s="0"/>
+      <c r="AJX25" s="0"/>
+      <c r="AJY25" s="0"/>
+      <c r="AJZ25" s="0"/>
+      <c r="AKA25" s="0"/>
+      <c r="AKB25" s="0"/>
+      <c r="AKC25" s="0"/>
+      <c r="AKD25" s="0"/>
+      <c r="AKE25" s="0"/>
+      <c r="AKF25" s="0"/>
+      <c r="AKG25" s="0"/>
+      <c r="AKH25" s="0"/>
+      <c r="AKI25" s="0"/>
+      <c r="AKJ25" s="0"/>
+      <c r="AKK25" s="0"/>
+      <c r="AKL25" s="0"/>
+      <c r="AKM25" s="0"/>
+      <c r="AKN25" s="0"/>
+      <c r="AKO25" s="0"/>
+      <c r="AKP25" s="0"/>
+      <c r="AKQ25" s="0"/>
+      <c r="AKR25" s="0"/>
+      <c r="AKS25" s="0"/>
+      <c r="AKT25" s="0"/>
+      <c r="AKU25" s="0"/>
+      <c r="AKV25" s="0"/>
+      <c r="AKW25" s="0"/>
+      <c r="AKX25" s="0"/>
+      <c r="AKY25" s="0"/>
+      <c r="AKZ25" s="0"/>
+      <c r="ALA25" s="0"/>
+      <c r="ALB25" s="0"/>
+      <c r="ALC25" s="0"/>
+      <c r="ALD25" s="0"/>
+      <c r="ALE25" s="0"/>
+      <c r="ALF25" s="0"/>
+      <c r="ALG25" s="0"/>
+      <c r="ALH25" s="0"/>
+      <c r="ALI25" s="0"/>
+      <c r="ALJ25" s="0"/>
+      <c r="ALK25" s="0"/>
+      <c r="ALL25" s="0"/>
+      <c r="ALM25" s="0"/>
+      <c r="ALN25" s="0"/>
+      <c r="ALO25" s="0"/>
+      <c r="ALP25" s="0"/>
+      <c r="ALQ25" s="0"/>
+      <c r="ALR25" s="0"/>
+      <c r="ALS25" s="0"/>
+      <c r="ALT25" s="0"/>
+      <c r="ALU25" s="0"/>
+      <c r="ALV25" s="0"/>
+      <c r="ALW25" s="0"/>
+      <c r="ALX25" s="0"/>
+      <c r="ALY25" s="0"/>
+      <c r="ALZ25" s="0"/>
+      <c r="AMA25" s="0"/>
+      <c r="AMB25" s="0"/>
+      <c r="AMC25" s="0"/>
+      <c r="AMD25" s="0"/>
+      <c r="AME25" s="0"/>
+      <c r="AMF25" s="0"/>
+      <c r="AMG25" s="0"/>
+      <c r="AMH25" s="0"/>
+      <c r="AMI25" s="0"/>
+      <c r="AMJ25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="75" t="n">
+        <v>290.454</v>
+      </c>
+      <c r="B26" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="83" t="n">
+      <c r="C26" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="87"/>
+      <c r="E26" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="78" t="n">
+        <v>4600</v>
+      </c>
+      <c r="G26" s="78" t="n">
         <v>312650</v>
       </c>
-      <c r="G25" s="84" t="n">
+      <c r="H26" s="79" t="n">
         <v>312619</v>
       </c>
-      <c r="H25" s="84" t="n">
+      <c r="I26" s="79" t="n">
         <v>53</v>
       </c>
-      <c r="I25" s="84" t="n">
+      <c r="J26" s="79" t="n">
         <v>7</v>
       </c>
-      <c r="J25" s="84" t="n">
+      <c r="K26" s="79" t="n">
         <v>1000</v>
       </c>
-      <c r="K25" s="84" t="s">
+      <c r="L26" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="79" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N26" s="80" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O26" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="88" t="n">
+        <v>290.65</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="87"/>
+      <c r="E27" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="89" t="n">
+        <v>4600</v>
+      </c>
+      <c r="G27" s="89" t="n">
+        <v>312648</v>
+      </c>
+      <c r="H27" s="87" t="n">
+        <v>312619</v>
+      </c>
+      <c r="I27" s="87" t="n">
+        <v>53</v>
+      </c>
+      <c r="J27" s="87" t="n">
+        <v>7</v>
+      </c>
+      <c r="K27" s="87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L27" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N27" s="91" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O27" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="88" t="n">
+        <v>290.626</v>
+      </c>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="87"/>
+      <c r="E28" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="89" t="n">
+        <v>4600</v>
+      </c>
+      <c r="G28" s="89" t="n">
+        <v>315841</v>
+      </c>
+      <c r="H28" s="87" t="n">
+        <v>312619</v>
+      </c>
+      <c r="I28" s="87" t="n">
+        <v>53</v>
+      </c>
+      <c r="J28" s="87" t="n">
+        <v>7</v>
+      </c>
+      <c r="K28" s="87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="87" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N28" s="91" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O28" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="82" t="n">
+        <v>290.662</v>
+      </c>
+      <c r="B29" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="83" t="n">
+        <v>4600</v>
+      </c>
+      <c r="G29" s="83" t="n">
+        <v>312649</v>
+      </c>
+      <c r="H29" s="85" t="n">
+        <v>312619</v>
+      </c>
+      <c r="I29" s="85" t="n">
+        <v>53</v>
+      </c>
+      <c r="J29" s="85" t="n">
+        <v>7</v>
+      </c>
+      <c r="K29" s="85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L29" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="85" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N29" s="86" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O29" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="36" t="n">
+        <v>290.763</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="37" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G30" s="37" t="n">
+        <v>312651</v>
+      </c>
+      <c r="H30" s="39" t="n">
+        <v>312632</v>
+      </c>
+      <c r="I30" s="39" t="n">
+        <v>53</v>
+      </c>
+      <c r="J30" s="39" t="n">
+        <v>6</v>
+      </c>
+      <c r="K30" s="39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L30" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N30" s="92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O30" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="42" t="n">
+        <v>290.763</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="43" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G31" s="43" t="n">
+        <v>315842</v>
+      </c>
+      <c r="H31" s="45" t="n">
+        <v>312632</v>
+      </c>
+      <c r="I31" s="45" t="n">
+        <v>53</v>
+      </c>
+      <c r="J31" s="45" t="n">
+        <v>6</v>
+      </c>
+      <c r="K31" s="45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L31" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N31" s="93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O31" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="47" t="n">
+        <v>290.791</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="48" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G32" s="48" t="n">
+        <v>312652</v>
+      </c>
+      <c r="H32" s="49" t="n">
+        <v>312632</v>
+      </c>
+      <c r="I32" s="49" t="n">
+        <v>53</v>
+      </c>
+      <c r="J32" s="49" t="n">
+        <v>6</v>
+      </c>
+      <c r="K32" s="49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N32" s="95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O32" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="96" t="n">
+        <v>291.539</v>
+      </c>
+      <c r="B33" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="98"/>
+      <c r="E33" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="97" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G33" s="97" t="n">
+        <v>314615</v>
+      </c>
+      <c r="H33" s="99" t="n">
+        <v>312223</v>
+      </c>
+      <c r="I33" s="99" t="n">
+        <v>20</v>
+      </c>
+      <c r="J33" s="99" t="n">
+        <v>8</v>
+      </c>
+      <c r="K33" s="99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L33" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N33" s="100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O33" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="102" t="n">
+        <v>291.549</v>
+      </c>
+      <c r="B34" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="L25" s="84" t="n">
+      <c r="E34" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="103" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G34" s="103" t="n">
+        <v>312233</v>
+      </c>
+      <c r="H34" s="105" t="n">
+        <v>312223</v>
+      </c>
+      <c r="I34" s="105" t="n">
+        <v>20</v>
+      </c>
+      <c r="J34" s="105" t="n">
+        <v>8</v>
+      </c>
+      <c r="K34" s="105" t="n">
         <v>1000</v>
       </c>
-      <c r="M25" s="85" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="N25" s="86" t="s">
+      <c r="L34" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="105" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N34" s="106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O34" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="107" t="n">
+        <v>291.549</v>
+      </c>
+      <c r="B35" s="108"/>
+      <c r="C35" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="109"/>
+      <c r="E35" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="108" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G35" s="108" t="n">
+        <v>315836</v>
+      </c>
+      <c r="H35" s="110" t="n">
+        <v>312223</v>
+      </c>
+      <c r="I35" s="110" t="n">
+        <v>20</v>
+      </c>
+      <c r="J35" s="110" t="n">
+        <v>8</v>
+      </c>
+      <c r="K35" s="110" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L35" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="110" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N35" s="111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O35" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="112" t="n">
+        <v>291.93</v>
+      </c>
+      <c r="B36" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="114" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="115"/>
+      <c r="E36" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="O25" s="70" t="s">
-        <v>35</v>
-      </c>
+      <c r="F36" s="113" t="n">
+        <v>5200</v>
+      </c>
+      <c r="G36" s="113" t="n">
+        <v>312382</v>
+      </c>
+      <c r="H36" s="116" t="n">
+        <v>312348</v>
+      </c>
+      <c r="I36" s="116" t="n">
+        <v>32</v>
+      </c>
+      <c r="J36" s="116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K36" s="116" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L36" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" s="116" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N36" s="117" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O36" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="P36" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="93" t="n">
-        <v>290.65</v>
-      </c>
-      <c r="B26" s="94" t="s">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="119" t="n">
+        <v>291.93</v>
+      </c>
+      <c r="B37" s="120"/>
+      <c r="C37" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="115"/>
+      <c r="E37" s="120" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="120" t="n">
+        <v>5200</v>
+      </c>
+      <c r="G37" s="120" t="n">
+        <v>315838</v>
+      </c>
+      <c r="H37" s="121" t="n">
+        <v>312348</v>
+      </c>
+      <c r="I37" s="121" t="n">
+        <v>32</v>
+      </c>
+      <c r="J37" s="121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" s="121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L37" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N37" s="122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O37" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="123" t="n">
+        <v>292.084</v>
+      </c>
+      <c r="B38" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="125" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="124" t="n">
+        <v>5200</v>
+      </c>
+      <c r="G38" s="124" t="n">
+        <v>312383</v>
+      </c>
+      <c r="H38" s="126" t="n">
+        <v>312348</v>
+      </c>
+      <c r="I38" s="126" t="n">
+        <v>32</v>
+      </c>
+      <c r="J38" s="126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" s="126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L38" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="M38" s="126" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N38" s="127" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O38" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="P38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="24" t="n">
+        <v>292.38</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="25" t="n">
+        <v>5400</v>
+      </c>
+      <c r="G39" s="25" t="n">
+        <v>312386</v>
+      </c>
+      <c r="H39" s="27" t="n">
+        <v>312366</v>
+      </c>
+      <c r="I39" s="27" t="n">
+        <v>32</v>
+      </c>
+      <c r="J39" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" s="27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L39" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M39" s="27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N39" s="28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="70" t="n">
+        <v>292.38</v>
+      </c>
+      <c r="B40" s="71"/>
+      <c r="C40" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="71" t="n">
+        <v>5400</v>
+      </c>
+      <c r="G40" s="71" t="n">
+        <v>315822</v>
+      </c>
+      <c r="H40" s="72" t="n">
+        <v>312366</v>
+      </c>
+      <c r="I40" s="72" t="n">
+        <v>32</v>
+      </c>
+      <c r="J40" s="72" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" s="72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L40" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="72" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N40" s="73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O40" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="30" t="n">
+        <v>292.383</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="31" t="n">
+        <v>5400</v>
+      </c>
+      <c r="G41" s="31" t="n">
+        <v>312387</v>
+      </c>
+      <c r="H41" s="34" t="n">
+        <v>312366</v>
+      </c>
+      <c r="I41" s="34" t="n">
+        <v>32</v>
+      </c>
+      <c r="J41" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" s="34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L41" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M41" s="34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N41" s="35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O41" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="n">
+        <v>292.77</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>5600</v>
+      </c>
+      <c r="G42" s="10" t="n">
+        <v>312388</v>
+      </c>
+      <c r="H42" s="12" t="n">
+        <v>312377</v>
+      </c>
+      <c r="I42" s="12" t="n">
+        <v>32</v>
+      </c>
+      <c r="J42" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K42" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L42" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M42" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N42" s="13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="20" t="n">
+        <v>292.77</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="74"/>
+      <c r="E43" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="21" t="n">
+        <v>5600</v>
+      </c>
+      <c r="G43" s="21" t="n">
+        <v>315843</v>
+      </c>
+      <c r="H43" s="22" t="n">
+        <v>312377</v>
+      </c>
+      <c r="I43" s="22" t="n">
+        <v>32</v>
+      </c>
+      <c r="J43" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" s="22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M43" s="22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N43" s="23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O43" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="96" t="n">
+        <v>293.08</v>
+      </c>
+      <c r="B44" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="98" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="97" t="n">
+        <v>5800</v>
+      </c>
+      <c r="G44" s="97" t="n">
+        <v>317910</v>
+      </c>
+      <c r="H44" s="99" t="n">
+        <v>317904</v>
+      </c>
+      <c r="I44" s="99" t="n">
+        <v>8</v>
+      </c>
+      <c r="J44" s="99" t="n">
+        <v>3</v>
+      </c>
+      <c r="K44" s="99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L44" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="99" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N44" s="100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O44" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="102" t="n">
+        <v>293.08</v>
+      </c>
+      <c r="B45" s="103"/>
+      <c r="C45" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="104"/>
+      <c r="E45" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="103" t="n">
+        <v>5800</v>
+      </c>
+      <c r="G45" s="103" t="n">
+        <v>317909</v>
+      </c>
+      <c r="H45" s="105" t="n">
+        <v>317904</v>
+      </c>
+      <c r="I45" s="105" t="n">
+        <v>8</v>
+      </c>
+      <c r="J45" s="105" t="n">
+        <v>3</v>
+      </c>
+      <c r="K45" s="105" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L45" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="105" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N45" s="106" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O45" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="128" t="n">
+        <v>293.42</v>
+      </c>
+      <c r="B46" s="129" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="129" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G46" s="129" t="n">
+        <v>312421</v>
+      </c>
+      <c r="H46" s="131" t="n">
+        <v>312394</v>
+      </c>
+      <c r="I46" s="131" t="n">
+        <v>68</v>
+      </c>
+      <c r="J46" s="131" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" s="130" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L46" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="130" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N46" s="132" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="O46" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="134" t="n">
+        <v>293.42</v>
+      </c>
+      <c r="B47" s="135"/>
+      <c r="C47" s="136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="137"/>
+      <c r="E47" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="135" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G47" s="135" t="n">
+        <v>315847</v>
+      </c>
+      <c r="H47" s="137" t="n">
+        <v>312394</v>
+      </c>
+      <c r="I47" s="137" t="n">
+        <v>68</v>
+      </c>
+      <c r="J47" s="137" t="n">
+        <v>4</v>
+      </c>
+      <c r="K47" s="137" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L47" s="137" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="137" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N47" s="138" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="O47" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="139" t="n">
+        <v>293.896</v>
+      </c>
+      <c r="B48" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="140"/>
+      <c r="E48" s="140" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="140" t="n">
+        <v>6200</v>
+      </c>
+      <c r="G48" s="140" t="n">
+        <v>312424</v>
+      </c>
+      <c r="H48" s="142" t="n">
+        <v>312399</v>
+      </c>
+      <c r="I48" s="142" t="n">
         <v>46</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="J48" s="142" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" s="142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L48" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="M48" s="142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N48" s="143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O48" s="144" t="s">
+        <v>21</v>
+      </c>
+      <c r="P48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="139" t="n">
+        <v>293.97</v>
+      </c>
+      <c r="B49" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="141"/>
+      <c r="E49" s="140" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="140" t="n">
+        <v>6200</v>
+      </c>
+      <c r="G49" s="140" t="n">
+        <v>312422</v>
+      </c>
+      <c r="H49" s="142" t="n">
+        <v>312399</v>
+      </c>
+      <c r="I49" s="142" t="n">
+        <v>46</v>
+      </c>
+      <c r="J49" s="142" t="n">
+        <v>2</v>
+      </c>
+      <c r="K49" s="142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L49" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="M49" s="142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N49" s="143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O49" s="144" t="s">
+        <v>21</v>
+      </c>
+      <c r="P49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="139" t="n">
+        <v>293.97</v>
+      </c>
+      <c r="B50" s="140"/>
+      <c r="C50" s="141" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="141"/>
+      <c r="E50" s="140" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="140" t="n">
+        <v>6200</v>
+      </c>
+      <c r="G50" s="140" t="n">
+        <v>315849</v>
+      </c>
+      <c r="H50" s="142" t="n">
+        <v>312399</v>
+      </c>
+      <c r="I50" s="142" t="n">
+        <v>46</v>
+      </c>
+      <c r="J50" s="142" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" s="142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L50" s="142" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N50" s="143" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O50" s="144" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="145" t="n">
+        <v>293.986</v>
+      </c>
+      <c r="B51" s="146" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="147" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="146" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="146" t="n">
+        <v>6200</v>
+      </c>
+      <c r="G51" s="146" t="n">
+        <v>312423</v>
+      </c>
+      <c r="H51" s="148" t="n">
+        <v>312399</v>
+      </c>
+      <c r="I51" s="148" t="n">
+        <v>46</v>
+      </c>
+      <c r="J51" s="148" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" s="148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L51" s="148" t="s">
+        <v>27</v>
+      </c>
+      <c r="M51" s="148" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N51" s="149" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O51" s="144" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="0"/>
+    </row>
+    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="150" t="n">
+        <v>294.07</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="151"/>
+      <c r="D52" s="0"/>
+      <c r="E52" s="152" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="152"/>
+      <c r="G52" s="153" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="0"/>
+      <c r="I52" s="0"/>
+      <c r="J52" s="0"/>
+      <c r="K52" s="0"/>
+      <c r="L52" s="0"/>
+      <c r="M52" s="0"/>
+      <c r="N52" s="0"/>
+      <c r="O52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="36" t="n">
+        <v>294.217</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="37" t="n">
+        <v>6400</v>
+      </c>
+      <c r="G53" s="37" t="n">
+        <v>312426</v>
+      </c>
+      <c r="H53" s="39" t="n">
+        <v>312408</v>
+      </c>
+      <c r="I53" s="39" t="n">
+        <v>46</v>
+      </c>
+      <c r="J53" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="K53" s="39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L53" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="M53" s="39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N53" s="40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O53" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="44"/>
+      <c r="E54" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="43" t="n">
+        <v>6400</v>
+      </c>
+      <c r="G54" s="43" t="n">
+        <v>312425</v>
+      </c>
+      <c r="H54" s="45" t="n">
+        <v>312408</v>
+      </c>
+      <c r="I54" s="45" t="n">
+        <v>46</v>
+      </c>
+      <c r="J54" s="45" t="n">
+        <v>5</v>
+      </c>
+      <c r="K54" s="45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L54" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N54" s="46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O54" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P54" s="0"/>
+    </row>
+    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="47" t="n">
+        <v>294.27</v>
+      </c>
+      <c r="B55" s="48"/>
+      <c r="C55" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="94"/>
+      <c r="E55" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="48" t="n">
+        <v>6400</v>
+      </c>
+      <c r="G55" s="48" t="n">
+        <v>315850</v>
+      </c>
+      <c r="H55" s="49" t="n">
+        <v>312408</v>
+      </c>
+      <c r="I55" s="49" t="n">
+        <v>46</v>
+      </c>
+      <c r="J55" s="49" t="n">
+        <v>5</v>
+      </c>
+      <c r="K55" s="49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L55" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="M55" s="49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N55" s="50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O55" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="154" t="n">
+        <v>294.717</v>
+      </c>
+      <c r="B56" s="155" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="156" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="156" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="155" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="155" t="n">
+        <v>6600</v>
+      </c>
+      <c r="G56" s="155" t="n">
+        <v>312513</v>
+      </c>
+      <c r="H56" s="157" t="n">
+        <v>312441</v>
+      </c>
+      <c r="I56" s="157" t="n">
+        <v>47</v>
+      </c>
+      <c r="J56" s="157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" s="157" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L56" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="157" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N56" s="158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O56" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="P56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="160" t="n">
+        <v>294.717</v>
+      </c>
+      <c r="B57" s="161"/>
+      <c r="C57" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="162"/>
+      <c r="E57" s="161" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="161" t="n">
+        <v>6600</v>
+      </c>
+      <c r="G57" s="161" t="n">
+        <v>315852</v>
+      </c>
+      <c r="H57" s="163" t="n">
+        <v>312441</v>
+      </c>
+      <c r="I57" s="163" t="n">
+        <v>47</v>
+      </c>
+      <c r="J57" s="163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" s="163" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="163" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="163" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N57" s="164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O57" s="159" t="s">
+        <v>28</v>
+      </c>
+      <c r="P57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="150" t="n">
+        <v>295.06</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="151"/>
+      <c r="D58" s="0"/>
+      <c r="E58" s="152" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="152"/>
+      <c r="G58" s="153" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="0"/>
+      <c r="I58" s="0"/>
+      <c r="J58" s="0"/>
+      <c r="K58" s="0"/>
+      <c r="L58" s="0"/>
+      <c r="M58" s="0"/>
+      <c r="N58" s="0"/>
+      <c r="O58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="0"/>
+    </row>
+    <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="165" t="n">
+        <v>295.27</v>
+      </c>
+      <c r="B59" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="166" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="166"/>
+      <c r="E59" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="71" t="n">
+        <v>6800</v>
+      </c>
+      <c r="G59" s="71" t="n">
+        <v>312514</v>
+      </c>
+      <c r="H59" s="167" t="n">
+        <v>312447</v>
+      </c>
+      <c r="I59" s="167" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" s="167" t="n">
+        <v>5</v>
+      </c>
+      <c r="K59" s="167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L59" s="167" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N59" s="168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O59" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="165" t="n">
+        <v>295.27</v>
+      </c>
+      <c r="B60" s="71"/>
+      <c r="C60" s="166" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="166"/>
+      <c r="E60" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="71" t="n">
+        <v>6800</v>
+      </c>
+      <c r="G60" s="71" t="n">
+        <v>315853</v>
+      </c>
+      <c r="H60" s="167" t="n">
+        <v>312447</v>
+      </c>
+      <c r="I60" s="167" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" s="167" t="n">
+        <v>5</v>
+      </c>
+      <c r="K60" s="167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L60" s="167" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N60" s="168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O60" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60" s="0"/>
+    </row>
+    <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="165" t="n">
+        <v>295.27</v>
+      </c>
+      <c r="B61" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="166" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="71" t="n">
+        <v>6800</v>
+      </c>
+      <c r="G61" s="71" t="n">
+        <v>312515</v>
+      </c>
+      <c r="H61" s="167" t="n">
+        <v>312447</v>
+      </c>
+      <c r="I61" s="167" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" s="167" t="n">
+        <v>5</v>
+      </c>
+      <c r="K61" s="167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L61" s="167" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="167" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N61" s="168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O61" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="150" t="n">
+        <v>295.34</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="151"/>
+      <c r="D62" s="0"/>
+      <c r="E62" s="152" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="152" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G62" s="153" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" s="0"/>
+      <c r="I62" s="0"/>
+      <c r="J62" s="0"/>
+      <c r="K62" s="0"/>
+      <c r="L62" s="0"/>
+      <c r="M62" s="0"/>
+      <c r="N62" s="0"/>
+      <c r="O62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="n">
+        <v>295.47</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="10" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G63" s="10" t="n">
+        <v>312520</v>
+      </c>
+      <c r="H63" s="12" t="n">
+        <v>312648</v>
+      </c>
+      <c r="I63" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K63" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N63" s="13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O63" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="15" t="n">
+        <v>295.47</v>
+      </c>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="16" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G64" s="16" t="n">
+        <v>315873</v>
+      </c>
+      <c r="H64" s="18" t="n">
+        <v>312648</v>
+      </c>
+      <c r="I64" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" s="18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L64" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N64" s="19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O64" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="20" t="n">
+        <v>295.47</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="21" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G65" s="21" t="n">
+        <v>312521</v>
+      </c>
+      <c r="H65" s="22" t="n">
+        <v>312648</v>
+      </c>
+      <c r="I65" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K65" s="22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L65" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N65" s="23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O65" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="170" t="n">
+        <v>295.861</v>
+      </c>
+      <c r="B66" s="171" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="172" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="171"/>
+      <c r="E66" s="171" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="171" t="n">
+        <v>7200</v>
+      </c>
+      <c r="G66" s="173" t="n">
+        <v>312524</v>
+      </c>
+      <c r="H66" s="174" t="n">
+        <v>312481</v>
+      </c>
+      <c r="I66" s="174" t="n">
+        <v>47</v>
+      </c>
+      <c r="J66" s="174" t="n">
+        <v>4</v>
+      </c>
+      <c r="K66" s="174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L66" s="172" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N66" s="175" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O66" s="176" t="s">
+        <v>28</v>
+      </c>
+      <c r="P66" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="177" t="n">
+        <v>296.007</v>
+      </c>
+      <c r="B67" s="178" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="179" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="178" t="s">
+        <v>26</v>
+      </c>
+      <c r="E67" s="178" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="178" t="n">
+        <v>7200</v>
+      </c>
+      <c r="G67" s="178" t="n">
+        <v>312523</v>
+      </c>
+      <c r="H67" s="180" t="n">
+        <v>312481</v>
+      </c>
+      <c r="I67" s="180" t="n">
+        <v>47</v>
+      </c>
+      <c r="J67" s="180" t="n">
+        <v>4</v>
+      </c>
+      <c r="K67" s="180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L67" s="180" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="180" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N67" s="181" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O67" s="176" t="s">
+        <v>28</v>
+      </c>
+      <c r="P67" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="182" t="n">
+        <v>296.007</v>
+      </c>
+      <c r="B68" s="183"/>
+      <c r="C68" s="184" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="185"/>
+      <c r="E68" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="183" t="n">
+        <v>7200</v>
+      </c>
+      <c r="G68" s="183" t="n">
+        <v>315854</v>
+      </c>
+      <c r="H68" s="186" t="n">
+        <v>312481</v>
+      </c>
+      <c r="I68" s="186" t="n">
+        <v>47</v>
+      </c>
+      <c r="J68" s="186" t="n">
+        <v>4</v>
+      </c>
+      <c r="K68" s="186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L68" s="186" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N68" s="187" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O68" s="176" t="s">
+        <v>28</v>
+      </c>
+      <c r="P68" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="188" t="n">
+        <v>296.335</v>
+      </c>
+      <c r="B69" s="189" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="190" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="190"/>
+      <c r="E69" s="189" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="189" t="n">
+        <v>7400</v>
+      </c>
+      <c r="G69" s="189" t="n">
+        <v>312525</v>
+      </c>
+      <c r="H69" s="191" t="n">
+        <v>312488</v>
+      </c>
+      <c r="I69" s="191" t="n">
+        <v>31</v>
+      </c>
+      <c r="J69" s="191" t="n">
+        <v>3</v>
+      </c>
+      <c r="K69" s="191" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L69" s="191" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="191" t="n">
+        <v>1002</v>
+      </c>
+      <c r="N69" s="192" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O69" s="193" t="s">
+        <v>21</v>
+      </c>
+      <c r="P69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="194" t="n">
+        <v>296.335</v>
+      </c>
+      <c r="B70" s="195"/>
+      <c r="C70" s="196" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="196"/>
+      <c r="E70" s="195" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="195" t="n">
+        <v>7400</v>
+      </c>
+      <c r="G70" s="195" t="n">
+        <v>315855</v>
+      </c>
+      <c r="H70" s="197" t="n">
+        <v>312488</v>
+      </c>
+      <c r="I70" s="197" t="n">
+        <v>31</v>
+      </c>
+      <c r="J70" s="197" t="n">
+        <v>3</v>
+      </c>
+      <c r="K70" s="197" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L70" s="197" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="197" t="n">
+        <v>1002</v>
+      </c>
+      <c r="N70" s="198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O70" s="193" t="s">
+        <v>21</v>
+      </c>
+      <c r="P70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="199" t="n">
+        <v>296.366</v>
+      </c>
+      <c r="B71" s="200" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" s="201" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="201" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="200" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="200" t="n">
+        <v>7400</v>
+      </c>
+      <c r="G71" s="200" t="n">
+        <v>312526</v>
+      </c>
+      <c r="H71" s="202" t="n">
+        <v>312488</v>
+      </c>
+      <c r="I71" s="202" t="n">
+        <v>31</v>
+      </c>
+      <c r="J71" s="202" t="n">
+        <v>3</v>
+      </c>
+      <c r="K71" s="202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L71" s="202" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="202" t="n">
+        <v>1002</v>
+      </c>
+      <c r="N71" s="203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O71" s="193" t="s">
+        <v>21</v>
+      </c>
+      <c r="P71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="194" t="n">
+        <v>296.426</v>
+      </c>
+      <c r="B72" s="195" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="196" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="196"/>
+      <c r="E72" s="195" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" s="195" t="n">
+        <v>7600</v>
+      </c>
+      <c r="G72" s="195" t="n">
+        <v>312529</v>
+      </c>
+      <c r="H72" s="197" t="n">
+        <v>312497</v>
+      </c>
+      <c r="I72" s="197" t="n">
+        <v>31</v>
+      </c>
+      <c r="J72" s="197" t="n">
+        <v>4</v>
+      </c>
+      <c r="K72" s="197" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L72" s="197" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="197" t="n">
+        <v>1001</v>
+      </c>
+      <c r="N72" s="198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O72" s="193" t="s">
+        <v>21</v>
+      </c>
+      <c r="P72" s="0"/>
+    </row>
+    <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="194" t="n">
+        <v>296.54</v>
+      </c>
+      <c r="B73" s="195" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="196" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73" s="196"/>
+      <c r="E73" s="195" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="195" t="n">
+        <v>7600</v>
+      </c>
+      <c r="G73" s="195" t="n">
+        <v>312527</v>
+      </c>
+      <c r="H73" s="197" t="n">
+        <v>312497</v>
+      </c>
+      <c r="I73" s="197" t="n">
+        <v>31</v>
+      </c>
+      <c r="J73" s="197" t="n">
+        <v>4</v>
+      </c>
+      <c r="K73" s="197" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L73" s="197" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="197" t="n">
+        <v>1001</v>
+      </c>
+      <c r="N73" s="198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O73" s="193" t="s">
+        <v>21</v>
+      </c>
+      <c r="P73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="194" t="n">
+        <v>296.54</v>
+      </c>
+      <c r="B74" s="195"/>
+      <c r="C74" s="196" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="196"/>
+      <c r="E74" s="195" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" s="195" t="n">
+        <v>7600</v>
+      </c>
+      <c r="G74" s="195" t="n">
+        <v>315856</v>
+      </c>
+      <c r="H74" s="197" t="n">
+        <v>312497</v>
+      </c>
+      <c r="I74" s="197" t="n">
+        <v>31</v>
+      </c>
+      <c r="J74" s="197" t="n">
+        <v>4</v>
+      </c>
+      <c r="K74" s="197" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L74" s="197" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="197" t="n">
+        <v>1001</v>
+      </c>
+      <c r="N74" s="198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O74" s="193" t="s">
+        <v>21</v>
+      </c>
+      <c r="P74" s="0"/>
+    </row>
+    <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="199" t="n">
+        <v>296.581</v>
+      </c>
+      <c r="B75" s="200" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" s="201" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="201" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="200" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="200" t="n">
+        <v>7600</v>
+      </c>
+      <c r="G75" s="200" t="n">
+        <v>312528</v>
+      </c>
+      <c r="H75" s="202" t="n">
+        <v>312497</v>
+      </c>
+      <c r="I75" s="202" t="n">
+        <v>31</v>
+      </c>
+      <c r="J75" s="202" t="n">
+        <v>4</v>
+      </c>
+      <c r="K75" s="202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L75" s="202" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="202" t="n">
+        <v>1001</v>
+      </c>
+      <c r="N75" s="203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O75" s="193" t="s">
+        <v>21</v>
+      </c>
+      <c r="P75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="170" t="n">
+        <v>297.07</v>
+      </c>
+      <c r="B76" s="171" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="204" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="204" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="171" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="171" t="n">
+        <v>7800</v>
+      </c>
+      <c r="G76" s="171" t="n">
+        <v>317896</v>
+      </c>
+      <c r="H76" s="174" t="n">
+        <v>317889</v>
+      </c>
+      <c r="I76" s="174" t="n">
         <v>45</v>
       </c>
-      <c r="D26" s="92"/>
-      <c r="E26" s="94" t="s">
+      <c r="J76" s="174" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" s="174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L76" s="174" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N76" s="175" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O76" s="176" t="s">
+        <v>28</v>
+      </c>
+      <c r="P76" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="182" t="n">
+        <v>297.07</v>
+      </c>
+      <c r="B77" s="183"/>
+      <c r="C77" s="185" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="185"/>
+      <c r="E77" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="183" t="n">
+        <v>7800</v>
+      </c>
+      <c r="G77" s="183" t="n">
+        <v>317895</v>
+      </c>
+      <c r="H77" s="186" t="n">
+        <v>317889</v>
+      </c>
+      <c r="I77" s="186" t="n">
+        <v>45</v>
+      </c>
+      <c r="J77" s="186" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" s="186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L77" s="186" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N77" s="187" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O77" s="176" t="s">
+        <v>28</v>
+      </c>
+      <c r="P77" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="150" t="n">
+        <v>297.44</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="151"/>
+      <c r="D78" s="0"/>
+      <c r="E78" s="152" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" s="152"/>
+      <c r="G78" s="153" t="s">
+        <v>67</v>
+      </c>
+      <c r="H78" s="0"/>
+      <c r="I78" s="0"/>
+      <c r="J78" s="0"/>
+      <c r="K78" s="0"/>
+      <c r="L78" s="0"/>
+      <c r="M78" s="0"/>
+      <c r="N78" s="0"/>
+      <c r="O78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="205" t="n">
+        <v>297.655</v>
+      </c>
+      <c r="B79" s="206" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="207" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="207"/>
+      <c r="E79" s="206" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="206" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G79" s="206" t="n">
+        <v>312562</v>
+      </c>
+      <c r="H79" s="208" t="n">
+        <v>312537</v>
+      </c>
+      <c r="I79" s="208" t="n">
+        <v>3</v>
+      </c>
+      <c r="J79" s="208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" s="208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L79" s="208" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="208" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N79" s="209" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O79" s="210" t="s">
+        <v>21</v>
+      </c>
+      <c r="P79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="211" t="n">
+        <v>297.655</v>
+      </c>
+      <c r="B80" s="153" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="212"/>
+      <c r="D80" s="212"/>
+      <c r="E80" s="213" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="213" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G80" s="152" t="n">
+        <v>315825</v>
+      </c>
+      <c r="H80" s="212"/>
+      <c r="I80" s="212"/>
+      <c r="J80" s="212"/>
+      <c r="K80" s="212"/>
+      <c r="L80" s="212"/>
+      <c r="M80" s="212"/>
+      <c r="N80" s="214"/>
+      <c r="O80" s="215" t="s">
+        <v>21</v>
+      </c>
+      <c r="P80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="216" t="n">
+        <v>297.679</v>
+      </c>
+      <c r="B81" s="217" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="218" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="94" t="n">
-        <v>312648</v>
-      </c>
-      <c r="G26" s="92" t="n">
-        <v>312619</v>
-      </c>
-      <c r="H26" s="92" t="n">
-        <v>53</v>
-      </c>
-      <c r="I26" s="92" t="n">
+      <c r="E81" s="217" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="217" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G81" s="217" t="n">
+        <v>312563</v>
+      </c>
+      <c r="H81" s="219" t="n">
+        <v>312537</v>
+      </c>
+      <c r="I81" s="219" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" s="219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" s="219" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L81" s="219" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" s="219" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N81" s="220" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O81" s="210" t="s">
+        <v>21</v>
+      </c>
+      <c r="P81" s="0"/>
+    </row>
+    <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="170" t="n">
+        <v>297.89</v>
+      </c>
+      <c r="B82" s="171" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" s="204" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="204" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="171" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="171" t="n">
+        <v>8200</v>
+      </c>
+      <c r="G82" s="171" t="n">
+        <v>318566</v>
+      </c>
+      <c r="H82" s="174" t="n">
+        <v>318559</v>
+      </c>
+      <c r="I82" s="174" t="n">
         <v>7</v>
       </c>
-      <c r="J26" s="92" t="n">
+      <c r="J82" s="174" t="n">
+        <v>7</v>
+      </c>
+      <c r="K82" s="174" t="n">
         <v>1000</v>
       </c>
-      <c r="K26" s="92" t="s">
+      <c r="L82" s="174" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82" s="174" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N82" s="175" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O82" s="176" t="s">
+        <v>28</v>
+      </c>
+      <c r="P82" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="182" t="n">
+        <v>297.89</v>
+      </c>
+      <c r="B83" s="183"/>
+      <c r="C83" s="185" t="s">
+        <v>89</v>
+      </c>
+      <c r="D83" s="185"/>
+      <c r="E83" s="183" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83" s="183" t="n">
+        <v>8200</v>
+      </c>
+      <c r="G83" s="183" t="n">
+        <v>318565</v>
+      </c>
+      <c r="H83" s="186" t="n">
+        <v>318559</v>
+      </c>
+      <c r="I83" s="186" t="n">
+        <v>7</v>
+      </c>
+      <c r="J83" s="186" t="n">
+        <v>7</v>
+      </c>
+      <c r="K83" s="186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L83" s="186" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" s="186" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N83" s="187" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O83" s="176" t="s">
+        <v>28</v>
+      </c>
+      <c r="P83" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="221" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="B84" s="222" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" s="223" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="223" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="92" t="n">
+      <c r="E84" s="222" t="s">
+        <v>92</v>
+      </c>
+      <c r="F84" s="222" t="n">
+        <v>8400</v>
+      </c>
+      <c r="G84" s="222" t="n">
+        <v>318577</v>
+      </c>
+      <c r="H84" s="224" t="n">
+        <v>318568</v>
+      </c>
+      <c r="I84" s="224" t="n">
+        <v>72</v>
+      </c>
+      <c r="J84" s="224" t="n">
+        <v>6</v>
+      </c>
+      <c r="K84" s="224" t="n">
         <v>1000</v>
       </c>
-      <c r="M26" s="96" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="N26" s="86" t="s">
+      <c r="L84" s="224" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" s="224" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N84" s="225" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="O84" s="226" t="s">
+        <v>28</v>
+      </c>
+      <c r="P84" s="68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="227" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="B85" s="228" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="229" t="s">
+        <v>91</v>
+      </c>
+      <c r="D85" s="229"/>
+      <c r="E85" s="228" t="s">
         <v>19</v>
       </c>
-      <c r="O26" s="70" t="s">
-        <v>35</v>
+      <c r="F85" s="228" t="n">
+        <v>8400</v>
+      </c>
+      <c r="G85" s="228" t="n">
+        <v>318575</v>
+      </c>
+      <c r="H85" s="230" t="n">
+        <v>318568</v>
+      </c>
+      <c r="I85" s="230" t="n">
+        <v>72</v>
+      </c>
+      <c r="J85" s="230" t="n">
+        <v>6</v>
+      </c>
+      <c r="K85" s="230" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L85" s="230" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" s="230" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N85" s="231" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="O85" s="226" t="s">
+        <v>28</v>
+      </c>
+      <c r="P85" s="68" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="93" t="n">
-        <v>290.626</v>
-      </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="94" t="s">
+    <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="232" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="B86" s="233"/>
+      <c r="C86" s="234" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="234"/>
+      <c r="E86" s="233" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="233" t="n">
+        <v>8400</v>
+      </c>
+      <c r="G86" s="233" t="n">
+        <v>318576</v>
+      </c>
+      <c r="H86" s="235" t="n">
+        <v>318568</v>
+      </c>
+      <c r="I86" s="235" t="n">
+        <v>72</v>
+      </c>
+      <c r="J86" s="235" t="n">
+        <v>6</v>
+      </c>
+      <c r="K86" s="235" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L86" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="94" t="n">
-        <v>315841</v>
-      </c>
-      <c r="G27" s="92" t="n">
-        <v>312619</v>
-      </c>
-      <c r="H27" s="92" t="n">
-        <v>53</v>
-      </c>
-      <c r="I27" s="92" t="n">
-        <v>7</v>
-      </c>
-      <c r="J27" s="92" t="n">
+      <c r="M86" s="235" t="n">
         <v>1000</v>
       </c>
-      <c r="K27" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="92" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M27" s="96" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="N27" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="O27" s="70" t="s">
-        <v>35</v>
+      <c r="N86" s="236" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="O86" s="226" t="s">
+        <v>28</v>
+      </c>
+      <c r="P86" s="68" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="87" t="n">
-        <v>290.662</v>
-      </c>
-      <c r="B28" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="89" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="88" t="n">
-        <v>312649</v>
-      </c>
-      <c r="G28" s="90" t="n">
-        <v>312619</v>
-      </c>
-      <c r="H28" s="90" t="n">
-        <v>53</v>
-      </c>
-      <c r="I28" s="90" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" s="90" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K28" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" s="90" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M28" s="91" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="N28" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="O28" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="35" t="n">
-        <v>290.763</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="36" t="n">
-        <v>312651</v>
-      </c>
-      <c r="G29" s="38" t="n">
-        <v>312632</v>
-      </c>
-      <c r="H29" s="38" t="n">
-        <v>53</v>
-      </c>
-      <c r="I29" s="38" t="n">
-        <v>6</v>
-      </c>
-      <c r="J29" s="38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K29" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="L29" s="38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M29" s="97" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N29" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="O29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="41" t="n">
-        <v>290.763</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="42" t="n">
-        <v>315842</v>
-      </c>
-      <c r="G30" s="44" t="n">
-        <v>312632</v>
-      </c>
-      <c r="H30" s="44" t="n">
-        <v>53</v>
-      </c>
-      <c r="I30" s="44" t="n">
-        <v>6</v>
-      </c>
-      <c r="J30" s="44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K30" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="L30" s="44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M30" s="98" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N30" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="O30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="46" t="n">
-        <v>290.791</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="47" t="n">
-        <v>312652</v>
-      </c>
-      <c r="G31" s="48" t="n">
-        <v>312632</v>
-      </c>
-      <c r="H31" s="48" t="n">
-        <v>53</v>
-      </c>
-      <c r="I31" s="48" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" s="48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K31" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="L31" s="48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M31" s="100" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N31" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="O31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="101" t="n">
-        <v>291.539</v>
-      </c>
-      <c r="B32" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="102" t="n">
-        <v>314615</v>
-      </c>
-      <c r="G32" s="105" t="n">
-        <v>312223</v>
-      </c>
-      <c r="H32" s="105" t="n">
-        <v>20</v>
-      </c>
-      <c r="I32" s="105" t="n">
-        <v>8</v>
-      </c>
-      <c r="J32" s="105" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K32" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="105" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M32" s="106" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N32" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="108" t="n">
-        <v>291.549</v>
-      </c>
-      <c r="B33" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="109" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="109" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="109" t="n">
-        <v>312233</v>
-      </c>
-      <c r="G33" s="111" t="n">
-        <v>312223</v>
-      </c>
-      <c r="H33" s="111" t="n">
-        <v>20</v>
-      </c>
-      <c r="I33" s="111" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" s="111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K33" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M33" s="112" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N33" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="113" t="n">
-        <v>291.549</v>
-      </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="116"/>
-      <c r="E34" s="114" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="114" t="n">
-        <v>315836</v>
-      </c>
-      <c r="G34" s="117" t="n">
-        <v>312223</v>
-      </c>
-      <c r="H34" s="117" t="n">
-        <v>20</v>
-      </c>
-      <c r="I34" s="117" t="n">
-        <v>8</v>
-      </c>
-      <c r="J34" s="117" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K34" s="117" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" s="117" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M34" s="118" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N34" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="119" t="n">
-        <v>291.93</v>
-      </c>
-      <c r="B35" s="120" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="121" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="122"/>
-      <c r="E35" s="120" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="120" t="n">
-        <v>312382</v>
-      </c>
-      <c r="G35" s="123" t="n">
-        <v>312348</v>
-      </c>
-      <c r="H35" s="123" t="n">
-        <v>32</v>
-      </c>
-      <c r="I35" s="123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" s="123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K35" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="L35" s="123" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M35" s="124" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N35" s="125" t="s">
-        <v>19</v>
-      </c>
-      <c r="O35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="126" t="n">
-        <v>291.93</v>
-      </c>
-      <c r="B36" s="127"/>
-      <c r="C36" s="122" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="122"/>
-      <c r="E36" s="127" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="127" t="n">
-        <v>315838</v>
-      </c>
-      <c r="G36" s="128" t="n">
-        <v>312348</v>
-      </c>
-      <c r="H36" s="128" t="n">
-        <v>32</v>
-      </c>
-      <c r="I36" s="128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" s="128" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K36" s="128" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36" s="128" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M36" s="129" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N36" s="125" t="s">
-        <v>19</v>
-      </c>
-      <c r="O36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="130" t="n">
-        <v>292.084</v>
-      </c>
-      <c r="B37" s="131" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="132" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="131" t="n">
-        <v>312383</v>
-      </c>
-      <c r="G37" s="133" t="n">
-        <v>312348</v>
-      </c>
-      <c r="H37" s="133" t="n">
-        <v>32</v>
-      </c>
-      <c r="I37" s="133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" s="133" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K37" s="133" t="s">
-        <v>26</v>
-      </c>
-      <c r="L37" s="133" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M37" s="134" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N37" s="125" t="s">
-        <v>19</v>
-      </c>
-      <c r="O37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23" t="n">
-        <v>292.38</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="24" t="n">
-        <v>312386</v>
-      </c>
-      <c r="G38" s="26" t="n">
-        <v>312366</v>
-      </c>
-      <c r="H38" s="26" t="n">
-        <v>32</v>
-      </c>
-      <c r="I38" s="26" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" s="26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K38" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="L38" s="26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M38" s="27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N38" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="O38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="73" t="n">
-        <v>292.38</v>
-      </c>
-      <c r="B39" s="74"/>
-      <c r="C39" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="74" t="n">
-        <v>315822</v>
-      </c>
-      <c r="G39" s="76" t="n">
-        <v>312366</v>
-      </c>
-      <c r="H39" s="76" t="n">
-        <v>32</v>
-      </c>
-      <c r="I39" s="76" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" s="76" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K39" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="L39" s="76" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M39" s="77" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N39" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="O39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29" t="n">
-        <v>292.383</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" s="30" t="n">
-        <v>312387</v>
-      </c>
-      <c r="G40" s="33" t="n">
-        <v>312366</v>
-      </c>
-      <c r="H40" s="33" t="n">
-        <v>32</v>
-      </c>
-      <c r="I40" s="33" t="n">
-        <v>2</v>
-      </c>
-      <c r="J40" s="33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="L40" s="33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M40" s="34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N40" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="O40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
-        <v>292.77</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="8" t="n">
-        <v>312388</v>
-      </c>
-      <c r="G41" s="10" t="n">
-        <v>312377</v>
-      </c>
-      <c r="H41" s="10" t="n">
-        <v>32</v>
-      </c>
-      <c r="I41" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J41" s="10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L41" s="10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M41" s="11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="19" t="n">
-        <v>292.77</v>
-      </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="135" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="135"/>
-      <c r="E42" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="20" t="n">
-        <v>315843</v>
-      </c>
-      <c r="G42" s="21" t="n">
-        <v>312377</v>
-      </c>
-      <c r="H42" s="21" t="n">
-        <v>32</v>
-      </c>
-      <c r="I42" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J42" s="21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K42" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L42" s="21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M42" s="22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N42" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="O42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="101" t="n">
-        <v>293.08</v>
-      </c>
-      <c r="B43" s="102" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="104" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="102" t="n">
-        <v>317910</v>
-      </c>
-      <c r="G43" s="105" t="n">
-        <v>317904</v>
-      </c>
-      <c r="H43" s="105" t="n">
-        <v>8</v>
-      </c>
-      <c r="I43" s="105" t="n">
-        <v>3</v>
-      </c>
-      <c r="J43" s="105" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K43" s="105" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="105" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M43" s="106" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N43" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="O43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="108" t="n">
-        <v>293.08</v>
-      </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="136"/>
-      <c r="E44" s="109" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="109" t="n">
-        <v>317909</v>
-      </c>
-      <c r="G44" s="111" t="n">
-        <v>317904</v>
-      </c>
-      <c r="H44" s="111" t="n">
-        <v>8</v>
-      </c>
-      <c r="I44" s="111" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" s="111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K44" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" s="111" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M44" s="112" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N44" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="O44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="137" t="n">
-        <v>293.42</v>
-      </c>
-      <c r="B45" s="138" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="139" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="138" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="138" t="n">
-        <v>312421</v>
-      </c>
-      <c r="G45" s="141" t="n">
-        <v>312394</v>
-      </c>
-      <c r="H45" s="141" t="n">
-        <v>68</v>
-      </c>
-      <c r="I45" s="141" t="n">
-        <v>4</v>
-      </c>
-      <c r="J45" s="140" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K45" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="L45" s="140" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M45" s="142" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="N45" s="143" t="s">
-        <v>27</v>
-      </c>
-      <c r="O45" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="144" t="n">
-        <v>293.42</v>
-      </c>
-      <c r="B46" s="145"/>
-      <c r="C46" s="146" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" s="147"/>
-      <c r="E46" s="145" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="145" t="n">
-        <v>315847</v>
-      </c>
-      <c r="G46" s="147" t="n">
-        <v>312394</v>
-      </c>
-      <c r="H46" s="147" t="n">
-        <v>68</v>
-      </c>
-      <c r="I46" s="147" t="n">
-        <v>4</v>
-      </c>
-      <c r="J46" s="147" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K46" s="147" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46" s="147" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M46" s="148" t="n">
-        <v>17.09</v>
-      </c>
-      <c r="N46" s="143" t="s">
-        <v>27</v>
-      </c>
-      <c r="O46" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="149" t="n">
-        <v>293.896</v>
-      </c>
-      <c r="B47" s="150" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="151" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="150"/>
-      <c r="E47" s="150" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="150" t="n">
-        <v>312424</v>
-      </c>
-      <c r="G47" s="152" t="n">
-        <v>312399</v>
-      </c>
-      <c r="H47" s="152" t="n">
-        <v>46</v>
-      </c>
-      <c r="I47" s="152" t="n">
-        <v>2</v>
-      </c>
-      <c r="J47" s="152" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K47" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="L47" s="152" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M47" s="153" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N47" s="154" t="s">
-        <v>19</v>
-      </c>
-      <c r="O47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="149" t="n">
-        <v>293.97</v>
-      </c>
-      <c r="B48" s="150" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="151" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="151"/>
-      <c r="E48" s="150" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="150" t="n">
-        <v>312422</v>
-      </c>
-      <c r="G48" s="152" t="n">
-        <v>312399</v>
-      </c>
-      <c r="H48" s="152" t="n">
-        <v>46</v>
-      </c>
-      <c r="I48" s="152" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" s="152" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K48" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="L48" s="152" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M48" s="153" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N48" s="154" t="s">
-        <v>19</v>
-      </c>
-      <c r="O48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="149" t="n">
-        <v>293.97</v>
-      </c>
-      <c r="B49" s="150"/>
-      <c r="C49" s="151" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="151"/>
-      <c r="E49" s="150" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="150" t="n">
-        <v>315849</v>
-      </c>
-      <c r="G49" s="152" t="n">
-        <v>312399</v>
-      </c>
-      <c r="H49" s="152" t="n">
-        <v>46</v>
-      </c>
-      <c r="I49" s="152" t="n">
-        <v>2</v>
-      </c>
-      <c r="J49" s="152" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K49" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="L49" s="152" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M49" s="153" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N49" s="154" t="s">
-        <v>19</v>
-      </c>
-      <c r="O49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="155" t="n">
-        <v>293.986</v>
-      </c>
-      <c r="B50" s="156" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="157" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="156" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="156" t="s">
-        <v>22</v>
-      </c>
-      <c r="F50" s="156" t="n">
-        <v>312423</v>
-      </c>
-      <c r="G50" s="158" t="n">
-        <v>312399</v>
-      </c>
-      <c r="H50" s="158" t="n">
-        <v>46</v>
-      </c>
-      <c r="I50" s="158" t="n">
-        <v>2</v>
-      </c>
-      <c r="J50" s="158" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K50" s="158" t="s">
-        <v>26</v>
-      </c>
-      <c r="L50" s="158" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M50" s="159" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N50" s="154" t="s">
-        <v>19</v>
-      </c>
-      <c r="O50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="160" t="n">
-        <v>294.07</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="161"/>
-      <c r="D51" s="0"/>
-      <c r="E51" s="162" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="163" t="s">
-        <v>66</v>
-      </c>
-      <c r="G51" s="0"/>
-      <c r="H51" s="0"/>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
-      <c r="K51" s="0"/>
-      <c r="L51" s="0"/>
-      <c r="M51" s="0"/>
-      <c r="N51" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="35" t="n">
-        <v>294.217</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="36" t="n">
-        <v>312426</v>
-      </c>
-      <c r="G52" s="38" t="n">
-        <v>312408</v>
-      </c>
-      <c r="H52" s="38" t="n">
-        <v>46</v>
-      </c>
-      <c r="I52" s="38" t="n">
-        <v>5</v>
-      </c>
-      <c r="J52" s="38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K52" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="L52" s="38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M52" s="39" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N52" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="O52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="43"/>
-      <c r="E53" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="42" t="n">
-        <v>312425</v>
-      </c>
-      <c r="G53" s="44" t="n">
-        <v>312408</v>
-      </c>
-      <c r="H53" s="44" t="n">
-        <v>46</v>
-      </c>
-      <c r="I53" s="44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J53" s="44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K53" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="L53" s="44" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M53" s="45" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N53" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="O53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="46" t="n">
-        <v>294.27</v>
-      </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="99"/>
-      <c r="E54" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="47" t="n">
-        <v>315850</v>
-      </c>
-      <c r="G54" s="48" t="n">
-        <v>312408</v>
-      </c>
-      <c r="H54" s="48" t="n">
-        <v>46</v>
-      </c>
-      <c r="I54" s="48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J54" s="48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K54" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="L54" s="48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M54" s="49" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N54" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="O54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="164" t="n">
-        <v>294.717</v>
-      </c>
-      <c r="B55" s="165" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="166" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="166" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="165" t="n">
-        <v>312513</v>
-      </c>
-      <c r="G55" s="167" t="n">
-        <v>312441</v>
-      </c>
-      <c r="H55" s="167" t="n">
-        <v>47</v>
-      </c>
-      <c r="I55" s="167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" s="167" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K55" s="167" t="s">
-        <v>18</v>
-      </c>
-      <c r="L55" s="167" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M55" s="168" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N55" s="169" t="s">
-        <v>27</v>
-      </c>
-      <c r="O55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="170" t="n">
-        <v>294.717</v>
-      </c>
-      <c r="B56" s="171"/>
-      <c r="C56" s="172" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="172"/>
-      <c r="E56" s="171" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="171" t="n">
-        <v>315852</v>
-      </c>
-      <c r="G56" s="173" t="n">
-        <v>312441</v>
-      </c>
-      <c r="H56" s="173" t="n">
-        <v>47</v>
-      </c>
-      <c r="I56" s="173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" s="173" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K56" s="173" t="s">
-        <v>18</v>
-      </c>
-      <c r="L56" s="173" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M56" s="174" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N56" s="169" t="s">
-        <v>27</v>
-      </c>
-      <c r="O56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="160" t="n">
-        <v>295.06</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="161"/>
-      <c r="D57" s="0"/>
-      <c r="E57" s="162" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" s="163" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" s="0"/>
-      <c r="H57" s="0"/>
-      <c r="I57" s="0"/>
-      <c r="J57" s="0"/>
-      <c r="K57" s="0"/>
-      <c r="L57" s="0"/>
-      <c r="M57" s="0"/>
-      <c r="N57" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="175" t="n">
-        <v>295.27</v>
-      </c>
-      <c r="B58" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="176" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" s="176"/>
-      <c r="E58" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="74" t="n">
-        <v>312514</v>
-      </c>
-      <c r="G58" s="177" t="n">
-        <v>312447</v>
-      </c>
-      <c r="H58" s="177" t="n">
-        <v>3</v>
-      </c>
-      <c r="I58" s="177" t="n">
-        <v>5</v>
-      </c>
-      <c r="J58" s="177" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K58" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="L58" s="177" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M58" s="178" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N58" s="179" t="s">
-        <v>19</v>
-      </c>
-      <c r="O58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="175" t="n">
-        <v>295.27</v>
-      </c>
-      <c r="B59" s="74"/>
-      <c r="C59" s="180" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="176"/>
-      <c r="E59" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="74" t="n">
-        <v>315853</v>
-      </c>
-      <c r="G59" s="177" t="n">
-        <v>312447</v>
-      </c>
-      <c r="H59" s="177" t="n">
-        <v>3</v>
-      </c>
-      <c r="I59" s="177" t="n">
-        <v>5</v>
-      </c>
-      <c r="J59" s="177" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K59" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59" s="177" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M59" s="178" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N59" s="179" t="s">
-        <v>19</v>
-      </c>
-      <c r="O59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="175" t="n">
-        <v>295.27</v>
-      </c>
-      <c r="B60" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="180" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="176" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="74" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="74" t="n">
-        <v>312515</v>
-      </c>
-      <c r="G60" s="177" t="n">
-        <v>312447</v>
-      </c>
-      <c r="H60" s="177" t="n">
-        <v>3</v>
-      </c>
-      <c r="I60" s="177" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" s="177" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K60" s="177" t="s">
-        <v>18</v>
-      </c>
-      <c r="L60" s="177" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M60" s="178" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N60" s="179" t="s">
-        <v>19</v>
-      </c>
-      <c r="O60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="160" t="n">
-        <v>295.34</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C61" s="161"/>
-      <c r="D61" s="0"/>
-      <c r="E61" s="162" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="163" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="0"/>
-      <c r="H61" s="0"/>
-      <c r="I61" s="0"/>
-      <c r="J61" s="0"/>
-      <c r="K61" s="0"/>
-      <c r="L61" s="0"/>
-      <c r="M61" s="0"/>
-      <c r="N61" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="n">
-        <v>295.47</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="8" t="n">
-        <v>312520</v>
-      </c>
-      <c r="G62" s="10" t="n">
-        <v>312648</v>
-      </c>
-      <c r="H62" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I62" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J62" s="10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L62" s="10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M62" s="11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N62" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="n">
-        <v>295.47</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="16"/>
-      <c r="E63" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="14" t="n">
-        <v>315873</v>
-      </c>
-      <c r="G63" s="17" t="n">
-        <v>312648</v>
-      </c>
-      <c r="H63" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I63" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J63" s="17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K63" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63" s="17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M63" s="18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N63" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="19" t="n">
-        <v>295.47</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="135" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" s="20" t="n">
-        <v>312521</v>
-      </c>
-      <c r="G64" s="21" t="n">
-        <v>312648</v>
-      </c>
-      <c r="H64" s="21" t="n">
-        <v>3</v>
-      </c>
-      <c r="I64" s="21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" s="21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K64" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L64" s="21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M64" s="22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N64" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="181" t="n">
-        <v>295.861</v>
-      </c>
-      <c r="B65" s="182" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="183" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="182"/>
-      <c r="E65" s="182" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="184" t="n">
-        <v>312524</v>
-      </c>
-      <c r="G65" s="185" t="n">
-        <v>312481</v>
-      </c>
-      <c r="H65" s="185" t="n">
-        <v>47</v>
-      </c>
-      <c r="I65" s="185" t="n">
-        <v>4</v>
-      </c>
-      <c r="J65" s="185" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K65" s="186" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" s="185" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M65" s="187" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="N65" s="188" t="s">
-        <v>27</v>
-      </c>
-      <c r="O65" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="189" t="n">
-        <v>296.007</v>
-      </c>
-      <c r="B66" s="190" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="191" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="190" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="190" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="190" t="n">
-        <v>312523</v>
-      </c>
-      <c r="G66" s="192" t="n">
-        <v>312481</v>
-      </c>
-      <c r="H66" s="192" t="n">
-        <v>47</v>
-      </c>
-      <c r="I66" s="192" t="n">
-        <v>4</v>
-      </c>
-      <c r="J66" s="192" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K66" s="192" t="s">
-        <v>18</v>
-      </c>
-      <c r="L66" s="192" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M66" s="193" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="N66" s="188" t="s">
-        <v>27</v>
-      </c>
-      <c r="O66" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="194" t="n">
-        <v>296.007</v>
-      </c>
-      <c r="B67" s="195"/>
-      <c r="C67" s="196" t="s">
-        <v>78</v>
-      </c>
-      <c r="D67" s="197"/>
-      <c r="E67" s="195" t="s">
-        <v>20</v>
-      </c>
-      <c r="F67" s="195" t="n">
-        <v>315854</v>
-      </c>
-      <c r="G67" s="198" t="n">
-        <v>312481</v>
-      </c>
-      <c r="H67" s="198" t="n">
-        <v>47</v>
-      </c>
-      <c r="I67" s="198" t="n">
-        <v>4</v>
-      </c>
-      <c r="J67" s="198" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K67" s="198" t="s">
-        <v>18</v>
-      </c>
-      <c r="L67" s="198" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M67" s="199" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="N67" s="188" t="s">
-        <v>27</v>
-      </c>
-      <c r="O67" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="200" t="n">
-        <v>296.335</v>
-      </c>
-      <c r="B68" s="201" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="202" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" s="203"/>
-      <c r="E68" s="201" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="201" t="n">
-        <v>312525</v>
-      </c>
-      <c r="G68" s="204" t="n">
-        <v>312488</v>
-      </c>
-      <c r="H68" s="204" t="n">
-        <v>31</v>
-      </c>
-      <c r="I68" s="204" t="n">
-        <v>3</v>
-      </c>
-      <c r="J68" s="204" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K68" s="204" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" s="204" t="n">
-        <v>1002</v>
-      </c>
-      <c r="M68" s="205" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N68" s="206" t="s">
-        <v>19</v>
-      </c>
-      <c r="O68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="207" t="n">
-        <v>296.335</v>
-      </c>
-      <c r="B69" s="208"/>
-      <c r="C69" s="209" t="s">
-        <v>80</v>
-      </c>
-      <c r="D69" s="210"/>
-      <c r="E69" s="208" t="s">
-        <v>20</v>
-      </c>
-      <c r="F69" s="208" t="n">
-        <v>315855</v>
-      </c>
-      <c r="G69" s="211" t="n">
-        <v>312488</v>
-      </c>
-      <c r="H69" s="211" t="n">
-        <v>31</v>
-      </c>
-      <c r="I69" s="211" t="n">
-        <v>3</v>
-      </c>
-      <c r="J69" s="211" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K69" s="211" t="s">
-        <v>18</v>
-      </c>
-      <c r="L69" s="211" t="n">
-        <v>1002</v>
-      </c>
-      <c r="M69" s="212" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N69" s="206" t="s">
-        <v>19</v>
-      </c>
-      <c r="O69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="213" t="n">
-        <v>296.366</v>
-      </c>
-      <c r="B70" s="214" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="215" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" s="216" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" s="214" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70" s="214" t="n">
-        <v>312526</v>
-      </c>
-      <c r="G70" s="217" t="n">
-        <v>312488</v>
-      </c>
-      <c r="H70" s="217" t="n">
-        <v>31</v>
-      </c>
-      <c r="I70" s="217" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" s="217" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K70" s="217" t="s">
-        <v>18</v>
-      </c>
-      <c r="L70" s="217" t="n">
-        <v>1002</v>
-      </c>
-      <c r="M70" s="218" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N70" s="206" t="s">
-        <v>19</v>
-      </c>
-      <c r="O70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="207" t="n">
-        <v>296.426</v>
-      </c>
-      <c r="B71" s="208" t="s">
-        <v>81</v>
-      </c>
-      <c r="C71" s="209" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="210"/>
-      <c r="E71" s="208" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" s="208" t="n">
-        <v>312529</v>
-      </c>
-      <c r="G71" s="211" t="n">
-        <v>312497</v>
-      </c>
-      <c r="H71" s="211" t="n">
-        <v>31</v>
-      </c>
-      <c r="I71" s="211" t="n">
-        <v>4</v>
-      </c>
-      <c r="J71" s="211" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K71" s="211" t="s">
-        <v>18</v>
-      </c>
-      <c r="L71" s="211" t="n">
-        <v>1001</v>
-      </c>
-      <c r="M71" s="212" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N71" s="206" t="s">
-        <v>19</v>
-      </c>
-      <c r="O71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="207" t="n">
-        <v>296.54</v>
-      </c>
-      <c r="B72" s="208" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="209" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="210"/>
-      <c r="E72" s="208" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" s="208" t="n">
-        <v>312527</v>
-      </c>
-      <c r="G72" s="211" t="n">
-        <v>312497</v>
-      </c>
-      <c r="H72" s="211" t="n">
-        <v>31</v>
-      </c>
-      <c r="I72" s="211" t="n">
-        <v>4</v>
-      </c>
-      <c r="J72" s="211" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K72" s="211" t="s">
-        <v>18</v>
-      </c>
-      <c r="L72" s="211" t="n">
-        <v>1001</v>
-      </c>
-      <c r="M72" s="212" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N72" s="206" t="s">
-        <v>19</v>
-      </c>
-      <c r="O72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="207" t="n">
-        <v>296.54</v>
-      </c>
-      <c r="B73" s="208"/>
-      <c r="C73" s="209" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" s="210"/>
-      <c r="E73" s="208" t="s">
-        <v>20</v>
-      </c>
-      <c r="F73" s="208" t="n">
-        <v>315856</v>
-      </c>
-      <c r="G73" s="211" t="n">
-        <v>312497</v>
-      </c>
-      <c r="H73" s="211" t="n">
-        <v>31</v>
-      </c>
-      <c r="I73" s="211" t="n">
-        <v>4</v>
-      </c>
-      <c r="J73" s="211" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K73" s="211" t="s">
-        <v>18</v>
-      </c>
-      <c r="L73" s="211" t="n">
-        <v>1001</v>
-      </c>
-      <c r="M73" s="212" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N73" s="206" t="s">
-        <v>19</v>
-      </c>
-      <c r="O73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="213" t="n">
-        <v>296.581</v>
-      </c>
-      <c r="B74" s="214" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" s="215" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" s="216" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="214" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="214" t="n">
-        <v>312528</v>
-      </c>
-      <c r="G74" s="217" t="n">
-        <v>312497</v>
-      </c>
-      <c r="H74" s="217" t="n">
-        <v>31</v>
-      </c>
-      <c r="I74" s="217" t="n">
-        <v>4</v>
-      </c>
-      <c r="J74" s="217" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K74" s="217" t="s">
-        <v>18</v>
-      </c>
-      <c r="L74" s="217" t="n">
-        <v>1001</v>
-      </c>
-      <c r="M74" s="218" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N74" s="206" t="s">
-        <v>19</v>
-      </c>
-      <c r="O74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="181" t="n">
-        <v>297.07</v>
-      </c>
-      <c r="B75" s="182" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" s="219" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" s="220" t="s">
-        <v>25</v>
-      </c>
-      <c r="E75" s="182" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="182" t="n">
-        <v>317896</v>
-      </c>
-      <c r="G75" s="185" t="n">
-        <v>317889</v>
-      </c>
-      <c r="H75" s="185" t="n">
-        <v>45</v>
-      </c>
-      <c r="I75" s="185" t="n">
-        <v>2</v>
-      </c>
-      <c r="J75" s="185" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K75" s="185" t="s">
-        <v>18</v>
-      </c>
-      <c r="L75" s="185" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M75" s="187" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="N75" s="188" t="s">
-        <v>27</v>
-      </c>
-      <c r="O75" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="194" t="n">
-        <v>297.07</v>
-      </c>
-      <c r="B76" s="195"/>
-      <c r="C76" s="221" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" s="197"/>
-      <c r="E76" s="195" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="195" t="n">
-        <v>317895</v>
-      </c>
-      <c r="G76" s="198" t="n">
-        <v>317889</v>
-      </c>
-      <c r="H76" s="198" t="n">
-        <v>45</v>
-      </c>
-      <c r="I76" s="198" t="n">
-        <v>2</v>
-      </c>
-      <c r="J76" s="198" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K76" s="198" t="s">
-        <v>18</v>
-      </c>
-      <c r="L76" s="198" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M76" s="199" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="N76" s="188" t="s">
-        <v>27</v>
-      </c>
-      <c r="O76" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="160" t="n">
-        <v>297.44</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="161"/>
-      <c r="D77" s="0"/>
-      <c r="E77" s="162" t="s">
-        <v>30</v>
-      </c>
-      <c r="F77" s="163" t="s">
-        <v>66</v>
-      </c>
-      <c r="G77" s="0"/>
-      <c r="H77" s="0"/>
-      <c r="I77" s="0"/>
-      <c r="J77" s="0"/>
-      <c r="K77" s="0"/>
-      <c r="L77" s="0"/>
-      <c r="M77" s="0"/>
-      <c r="N77" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O77" s="0"/>
-    </row>
-    <row r="78" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="222" t="n">
-        <v>297.655</v>
-      </c>
-      <c r="B78" s="223" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" s="224" t="s">
-        <v>86</v>
-      </c>
-      <c r="D78" s="225"/>
-      <c r="E78" s="223" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="223" t="n">
-        <v>312562</v>
-      </c>
-      <c r="G78" s="226" t="n">
-        <v>312537</v>
-      </c>
-      <c r="H78" s="226" t="n">
-        <v>3</v>
-      </c>
-      <c r="I78" s="226" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" s="226" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K78" s="226" t="s">
-        <v>18</v>
-      </c>
-      <c r="L78" s="226" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M78" s="227" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N78" s="228" t="s">
-        <v>19</v>
-      </c>
-      <c r="O78" s="0"/>
-    </row>
-    <row r="79" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="229" t="n">
-        <v>297.655</v>
-      </c>
-      <c r="B79" s="163" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="230"/>
-      <c r="D79" s="230"/>
-      <c r="E79" s="231" t="s">
-        <v>20</v>
-      </c>
-      <c r="F79" s="162" t="n">
-        <v>315825</v>
-      </c>
-      <c r="G79" s="230"/>
-      <c r="H79" s="230"/>
-      <c r="I79" s="230"/>
-      <c r="J79" s="230"/>
-      <c r="K79" s="230"/>
-      <c r="L79" s="230"/>
-      <c r="M79" s="232"/>
-      <c r="N79" s="233" t="s">
-        <v>19</v>
-      </c>
-      <c r="O79" s="0"/>
-    </row>
-    <row r="80" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="234" t="n">
-        <v>297.679</v>
-      </c>
-      <c r="B80" s="235" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" s="236" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80" s="237" t="s">
-        <v>21</v>
-      </c>
-      <c r="E80" s="235" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" s="235" t="n">
-        <v>312563</v>
-      </c>
-      <c r="G80" s="238" t="n">
-        <v>312537</v>
-      </c>
-      <c r="H80" s="238" t="n">
-        <v>3</v>
-      </c>
-      <c r="I80" s="238" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" s="238" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K80" s="238" t="s">
-        <v>18</v>
-      </c>
-      <c r="L80" s="238" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M80" s="239" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="N80" s="228" t="s">
-        <v>19</v>
-      </c>
-      <c r="O80" s="0"/>
-    </row>
-    <row r="81" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="181" t="n">
-        <v>297.89</v>
-      </c>
-      <c r="B81" s="182" t="s">
-        <v>87</v>
-      </c>
-      <c r="C81" s="219" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" s="220" t="s">
-        <v>25</v>
-      </c>
-      <c r="E81" s="182" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="182" t="n">
-        <v>318566</v>
-      </c>
-      <c r="G81" s="185" t="n">
-        <v>318559</v>
-      </c>
-      <c r="H81" s="185" t="n">
-        <v>7</v>
-      </c>
-      <c r="I81" s="185" t="n">
-        <v>7</v>
-      </c>
-      <c r="J81" s="185" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K81" s="185" t="s">
-        <v>18</v>
-      </c>
-      <c r="L81" s="185" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M81" s="187" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N81" s="188" t="s">
-        <v>27</v>
-      </c>
-      <c r="O81" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="194" t="n">
-        <v>297.89</v>
-      </c>
-      <c r="B82" s="195"/>
-      <c r="C82" s="221" t="s">
-        <v>88</v>
-      </c>
-      <c r="D82" s="197"/>
-      <c r="E82" s="195" t="s">
-        <v>20</v>
-      </c>
-      <c r="F82" s="195" t="n">
-        <v>318565</v>
-      </c>
-      <c r="G82" s="198" t="n">
-        <v>318559</v>
-      </c>
-      <c r="H82" s="198" t="n">
-        <v>7</v>
-      </c>
-      <c r="I82" s="198" t="n">
-        <v>7</v>
-      </c>
-      <c r="J82" s="198" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K82" s="198" t="s">
-        <v>18</v>
-      </c>
-      <c r="L82" s="198" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M82" s="199" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N82" s="188" t="s">
-        <v>27</v>
-      </c>
-      <c r="O82" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="240" t="n">
-        <v>298.5</v>
-      </c>
-      <c r="B83" s="241" t="s">
-        <v>89</v>
-      </c>
-      <c r="C83" s="242" t="s">
-        <v>90</v>
-      </c>
-      <c r="D83" s="243" t="s">
-        <v>25</v>
-      </c>
-      <c r="E83" s="241" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="241" t="n">
-        <v>318577</v>
-      </c>
-      <c r="G83" s="244" t="n">
-        <v>318568</v>
-      </c>
-      <c r="H83" s="244" t="n">
-        <v>72</v>
-      </c>
-      <c r="I83" s="244" t="n">
-        <v>6</v>
-      </c>
-      <c r="J83" s="244" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K83" s="244" t="s">
-        <v>18</v>
-      </c>
-      <c r="L83" s="244" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M83" s="245" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="N83" s="246" t="s">
-        <v>27</v>
-      </c>
-      <c r="O83" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="247" t="n">
-        <v>298.5</v>
-      </c>
-      <c r="B84" s="248" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="249" t="s">
-        <v>90</v>
-      </c>
-      <c r="D84" s="250"/>
-      <c r="E84" s="248" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="248" t="n">
-        <v>318575</v>
-      </c>
-      <c r="G84" s="251" t="n">
-        <v>318568</v>
-      </c>
-      <c r="H84" s="251" t="n">
-        <v>72</v>
-      </c>
-      <c r="I84" s="251" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" s="251" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K84" s="251" t="s">
-        <v>18</v>
-      </c>
-      <c r="L84" s="251" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M84" s="252" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="N84" s="246" t="s">
-        <v>27</v>
-      </c>
-      <c r="O84" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="253" t="n">
-        <v>298.5</v>
-      </c>
-      <c r="B85" s="254"/>
-      <c r="C85" s="255" t="s">
-        <v>90</v>
-      </c>
-      <c r="D85" s="256"/>
-      <c r="E85" s="254" t="s">
-        <v>20</v>
-      </c>
-      <c r="F85" s="254" t="n">
-        <v>318576</v>
-      </c>
-      <c r="G85" s="257" t="n">
-        <v>318568</v>
-      </c>
-      <c r="H85" s="257" t="n">
-        <v>72</v>
-      </c>
-      <c r="I85" s="257" t="n">
-        <v>6</v>
-      </c>
-      <c r="J85" s="257" t="n">
-        <v>1000</v>
-      </c>
-      <c r="K85" s="257" t="s">
-        <v>18</v>
-      </c>
-      <c r="L85" s="257" t="n">
-        <v>1000</v>
-      </c>
-      <c r="M85" s="258" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="N85" s="246" t="s">
-        <v>27</v>
-      </c>
-      <c r="O85" s="70" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
